--- a/cache/msc_atual.xlsx
+++ b/cache/msc_atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="394">
   <si>
     <t>conta_contabil</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>123810201</t>
+  </si>
+  <si>
+    <t>123910103</t>
   </si>
   <si>
     <t>211110101</t>
@@ -1550,7 +1553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G385"/>
+  <dimension ref="A1:G386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1624,7 @@
         <v>33627.53</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D4">
         <v>8261325.02</v>
@@ -1633,7 +1636,7 @@
         <v>32699.76</v>
       </c>
       <c r="G4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1661,7 +1664,7 @@
         <v>9305342.83</v>
       </c>
       <c r="C6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D6">
         <v>2447531.47</v>
@@ -1673,7 +1676,7 @@
         <v>9046426.59</v>
       </c>
       <c r="G6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1684,7 +1687,7 @@
         <v>112836.36</v>
       </c>
       <c r="C7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D7">
         <v>658581.3100000001</v>
@@ -1696,7 +1699,7 @@
         <v>112762.43</v>
       </c>
       <c r="G7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1707,7 +1710,7 @@
         <v>629619.74</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1719,7 +1722,7 @@
         <v>551895.0699999999</v>
       </c>
       <c r="G8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1730,7 +1733,7 @@
         <v>236473.48</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1742,7 +1745,7 @@
         <v>201121.71</v>
       </c>
       <c r="G9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1770,7 +1773,7 @@
         <v>121829.33</v>
       </c>
       <c r="C11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1782,7 +1785,7 @@
         <v>115449.26</v>
       </c>
       <c r="G11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1793,7 +1796,7 @@
         <v>2437.05</v>
       </c>
       <c r="C12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1805,7 +1808,7 @@
         <v>2347.05</v>
       </c>
       <c r="G12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1816,7 +1819,7 @@
         <v>3315.03</v>
       </c>
       <c r="C13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1828,7 +1831,7 @@
         <v>3315.03</v>
       </c>
       <c r="G13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1839,7 +1842,7 @@
         <v>613.5599999999999</v>
       </c>
       <c r="C14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1851,7 +1854,7 @@
         <v>284.08</v>
       </c>
       <c r="G14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1862,7 +1865,7 @@
         <v>10753.87</v>
       </c>
       <c r="C15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1874,7 +1877,7 @@
         <v>10753.87</v>
       </c>
       <c r="G15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1936,7 +1939,7 @@
         <v>20400</v>
       </c>
       <c r="C19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D19">
         <v>500</v>
@@ -1948,7 +1951,7 @@
         <v>20400</v>
       </c>
       <c r="G19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1968,7 +1971,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1979,7 +1982,7 @@
         <v>193.88</v>
       </c>
       <c r="C21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D21">
         <v>192</v>
@@ -1991,7 +1994,7 @@
         <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2002,7 +2005,7 @@
         <v>2621.58</v>
       </c>
       <c r="C22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D22">
         <v>260.3</v>
@@ -2014,7 +2017,7 @@
         <v>2777.76</v>
       </c>
       <c r="G22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2025,7 +2028,7 @@
         <v>246534.08</v>
       </c>
       <c r="C23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D23">
         <v>245192.06</v>
@@ -2037,7 +2040,7 @@
         <v>245192.06</v>
       </c>
       <c r="G23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2048,7 +2051,7 @@
         <v>93586.77</v>
       </c>
       <c r="C24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D24">
         <v>93077.35000000001</v>
@@ -2060,7 +2063,7 @@
         <v>93077.35000000001</v>
       </c>
       <c r="G24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2071,7 +2074,7 @@
         <v>1165312.26</v>
       </c>
       <c r="C25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2083,7 +2086,7 @@
         <v>1039395.33</v>
       </c>
       <c r="G25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2094,7 +2097,7 @@
         <v>919.23</v>
       </c>
       <c r="C26" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2106,7 +2109,7 @@
         <v>919.23</v>
       </c>
       <c r="G26" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2117,7 +2120,7 @@
         <v>14862605.66</v>
       </c>
       <c r="C27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D27">
         <v>182153.2</v>
@@ -2129,7 +2132,7 @@
         <v>14769191.27</v>
       </c>
       <c r="G27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2140,7 +2143,7 @@
         <v>9939647.77</v>
       </c>
       <c r="C28" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D28">
         <v>46713.62</v>
@@ -2152,7 +2155,7 @@
         <v>9981702.130000001</v>
       </c>
       <c r="G28" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2163,7 +2166,7 @@
         <v>25324.6</v>
       </c>
       <c r="C29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D29">
         <v>12714.11</v>
@@ -2175,7 +2178,7 @@
         <v>37058.71</v>
       </c>
       <c r="G29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2186,7 +2189,7 @@
         <v>3798088.41</v>
       </c>
       <c r="C30" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D30">
         <v>356494.94</v>
@@ -2198,7 +2201,7 @@
         <v>4154583.35</v>
       </c>
       <c r="G30" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2209,7 +2212,7 @@
         <v>138790.58</v>
       </c>
       <c r="C31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2221,7 +2224,7 @@
         <v>138790.58</v>
       </c>
       <c r="G31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2232,7 +2235,7 @@
         <v>1143.15</v>
       </c>
       <c r="C32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2244,7 +2247,7 @@
         <v>1143.15</v>
       </c>
       <c r="G32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2255,7 +2258,7 @@
         <v>6372.21</v>
       </c>
       <c r="C33" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2267,7 +2270,7 @@
         <v>6372.21</v>
       </c>
       <c r="G33" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2278,7 +2281,7 @@
         <v>1430</v>
       </c>
       <c r="C34" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2290,7 +2293,7 @@
         <v>1430</v>
       </c>
       <c r="G34" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2301,7 +2304,7 @@
         <v>209776.6</v>
       </c>
       <c r="C35" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2313,7 +2316,7 @@
         <v>209776.6</v>
       </c>
       <c r="G35" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2324,7 +2327,7 @@
         <v>10961.01</v>
       </c>
       <c r="C36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2336,7 +2339,7 @@
         <v>10961.01</v>
       </c>
       <c r="G36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2347,7 +2350,7 @@
         <v>51629.37</v>
       </c>
       <c r="C37" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2359,7 +2362,7 @@
         <v>51629.37</v>
       </c>
       <c r="G37" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2370,7 +2373,7 @@
         <v>2462836.82</v>
       </c>
       <c r="C38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2382,7 +2385,7 @@
         <v>2462836.82</v>
       </c>
       <c r="G38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2393,7 +2396,7 @@
         <v>781.01</v>
       </c>
       <c r="C39" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2405,7 +2408,7 @@
         <v>781.01</v>
       </c>
       <c r="G39" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2416,7 +2419,7 @@
         <v>3182</v>
       </c>
       <c r="C40" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2428,7 +2431,7 @@
         <v>3182</v>
       </c>
       <c r="G40" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2439,7 +2442,7 @@
         <v>271070.47</v>
       </c>
       <c r="C41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2451,7 +2454,7 @@
         <v>271070.47</v>
       </c>
       <c r="G41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2462,7 +2465,7 @@
         <v>9683.02</v>
       </c>
       <c r="C42" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D42">
         <v>3166.38</v>
@@ -2474,7 +2477,7 @@
         <v>11119.96</v>
       </c>
       <c r="G42" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2502,7 +2505,7 @@
         <v>1227.17</v>
       </c>
       <c r="C44" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D44">
         <v>21730</v>
@@ -2514,7 +2517,7 @@
         <v>22796.21</v>
       </c>
       <c r="G44" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2525,7 +2528,7 @@
         <v>23287.24</v>
       </c>
       <c r="C45" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D45">
         <v>236277.07</v>
@@ -2537,7 +2540,7 @@
         <v>235064.31</v>
       </c>
       <c r="G45" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2548,7 +2551,7 @@
         <v>426322.12</v>
       </c>
       <c r="C46" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D46">
         <v>17768.39</v>
@@ -2560,7 +2563,7 @@
         <v>426106.29</v>
       </c>
       <c r="G46" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2571,7 +2574,7 @@
         <v>577543.78</v>
       </c>
       <c r="C47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2583,7 +2586,7 @@
         <v>577543.78</v>
       </c>
       <c r="G47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2594,7 +2597,7 @@
         <v>325654.74</v>
       </c>
       <c r="C48" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2606,7 +2609,7 @@
         <v>325654.74</v>
       </c>
       <c r="G48" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2617,7 +2620,7 @@
         <v>569411.79</v>
       </c>
       <c r="C49" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2629,7 +2632,7 @@
         <v>569411.79</v>
       </c>
       <c r="G49" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2640,7 +2643,7 @@
         <v>2039650.72</v>
       </c>
       <c r="C50" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2652,7 +2655,7 @@
         <v>2039650.72</v>
       </c>
       <c r="G50" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2663,7 +2666,7 @@
         <v>56395.12</v>
       </c>
       <c r="C51" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D51">
         <v>9593.99</v>
@@ -2675,7 +2678,7 @@
         <v>65989.11</v>
       </c>
       <c r="G51" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2686,7 +2689,7 @@
         <v>7557.56</v>
       </c>
       <c r="C52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2698,7 +2701,7 @@
         <v>7557.56</v>
       </c>
       <c r="G52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2709,7 +2712,7 @@
         <v>6121.09</v>
       </c>
       <c r="C53" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2721,7 +2724,7 @@
         <v>6121.09</v>
       </c>
       <c r="G53" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2732,7 +2735,7 @@
         <v>1700</v>
       </c>
       <c r="C54" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2744,7 +2747,7 @@
         <v>1700</v>
       </c>
       <c r="G54" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2755,7 +2758,7 @@
         <v>11230.83</v>
       </c>
       <c r="C55" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2767,7 +2770,7 @@
         <v>11230.83</v>
       </c>
       <c r="G55" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2778,7 +2781,7 @@
         <v>85076.44</v>
       </c>
       <c r="C56" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2790,7 +2793,7 @@
         <v>85076.44</v>
       </c>
       <c r="G56" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2801,7 +2804,7 @@
         <v>112485.49</v>
       </c>
       <c r="C57" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2813,7 +2816,7 @@
         <v>112485.49</v>
       </c>
       <c r="G57" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2824,7 +2827,7 @@
         <v>30085.57</v>
       </c>
       <c r="C58" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2836,7 +2839,7 @@
         <v>30085.57</v>
       </c>
       <c r="G58" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2847,7 +2850,7 @@
         <v>11352.65</v>
       </c>
       <c r="C59" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2859,7 +2862,7 @@
         <v>11352.65</v>
       </c>
       <c r="G59" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2870,7 +2873,7 @@
         <v>302658</v>
       </c>
       <c r="C60" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2882,7 +2885,7 @@
         <v>302658</v>
       </c>
       <c r="G60" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2893,7 +2896,7 @@
         <v>92210</v>
       </c>
       <c r="C61" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2905,7 +2908,7 @@
         <v>92210</v>
       </c>
       <c r="G61" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2916,7 +2919,7 @@
         <v>1460</v>
       </c>
       <c r="C62" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2928,7 +2931,7 @@
         <v>1460</v>
       </c>
       <c r="G62" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2939,7 +2942,7 @@
         <v>3035885.64</v>
       </c>
       <c r="C63" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2951,7 +2954,7 @@
         <v>3035885.64</v>
       </c>
       <c r="G63" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2962,7 +2965,7 @@
         <v>502070.66</v>
       </c>
       <c r="C64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2974,7 +2977,7 @@
         <v>502070.66</v>
       </c>
       <c r="G64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2985,7 +2988,7 @@
         <v>491837.2</v>
       </c>
       <c r="C65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2997,7 +3000,7 @@
         <v>491837.2</v>
       </c>
       <c r="G65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3008,7 +3011,7 @@
         <v>129657.13</v>
       </c>
       <c r="C66" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3020,7 +3023,7 @@
         <v>129657.13</v>
       </c>
       <c r="G66" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3031,7 +3034,7 @@
         <v>298</v>
       </c>
       <c r="C67" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3043,7 +3046,7 @@
         <v>298</v>
       </c>
       <c r="G67" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3054,7 +3057,7 @@
         <v>614369.05</v>
       </c>
       <c r="C68" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D68">
         <v>8550</v>
@@ -3066,7 +3069,7 @@
         <v>622715.22</v>
       </c>
       <c r="G68" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3077,7 +3080,7 @@
         <v>21223.6</v>
       </c>
       <c r="C69" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3089,7 +3092,7 @@
         <v>21223.6</v>
       </c>
       <c r="G69" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3100,7 +3103,7 @@
         <v>1737.7</v>
       </c>
       <c r="C70" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3112,7 +3115,7 @@
         <v>1737.7</v>
       </c>
       <c r="G70" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3123,7 +3126,7 @@
         <v>33973.29</v>
       </c>
       <c r="C71" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D71">
         <v>77420</v>
@@ -3135,7 +3138,7 @@
         <v>111393.29</v>
       </c>
       <c r="G71" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3146,7 +3149,7 @@
         <v>119104.7</v>
       </c>
       <c r="C72" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3158,7 +3161,7 @@
         <v>119104.7</v>
       </c>
       <c r="G72" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3169,7 +3172,7 @@
         <v>4325454.2</v>
       </c>
       <c r="C73" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3181,7 +3184,7 @@
         <v>4325454.2</v>
       </c>
       <c r="G73" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3192,7 +3195,7 @@
         <v>1778481</v>
       </c>
       <c r="C74" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3204,7 +3207,7 @@
         <v>1778481</v>
       </c>
       <c r="G74" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3215,7 +3218,7 @@
         <v>44528.75</v>
       </c>
       <c r="C75" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3227,7 +3230,7 @@
         <v>44528.75</v>
       </c>
       <c r="G75" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3255,7 +3258,7 @@
         <v>21819.89</v>
       </c>
       <c r="C77" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3267,7 +3270,7 @@
         <v>21819.89</v>
       </c>
       <c r="G77" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3278,7 +3281,7 @@
         <v>5082352.47</v>
       </c>
       <c r="C78" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3290,7 +3293,7 @@
         <v>5082352.47</v>
       </c>
       <c r="G78" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3301,7 +3304,7 @@
         <v>8792581.460000001</v>
       </c>
       <c r="C79" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3313,7 +3316,7 @@
         <v>8792581.460000001</v>
       </c>
       <c r="G79" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3324,7 +3327,7 @@
         <v>518420.67</v>
       </c>
       <c r="C80" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3336,7 +3339,7 @@
         <v>518420.67</v>
       </c>
       <c r="G80" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3347,7 +3350,7 @@
         <v>104000</v>
       </c>
       <c r="C81" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3359,7 +3362,7 @@
         <v>104000</v>
       </c>
       <c r="G81" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3370,7 +3373,7 @@
         <v>62909.08</v>
       </c>
       <c r="C82" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3382,7 +3385,7 @@
         <v>62909.08</v>
       </c>
       <c r="G82" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3393,7 +3396,7 @@
         <v>73374.13</v>
       </c>
       <c r="C83" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3405,7 +3408,7 @@
         <v>73374.13</v>
       </c>
       <c r="G83" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3416,7 +3419,7 @@
         <v>440</v>
       </c>
       <c r="C84" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D84">
         <v>47360.8</v>
@@ -3428,7 +3431,7 @@
         <v>47800.8</v>
       </c>
       <c r="G84" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3439,7 +3442,7 @@
         <v>1849025.35</v>
       </c>
       <c r="C85" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3451,7 +3454,7 @@
         <v>1875966.13</v>
       </c>
       <c r="G85" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3462,7 +3465,7 @@
         <v>534820.39</v>
       </c>
       <c r="C86" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3474,7 +3477,7 @@
         <v>547787.92</v>
       </c>
       <c r="G86" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3485,7 +3488,7 @@
         <v>302483.53</v>
       </c>
       <c r="C87" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3497,7 +3500,7 @@
         <v>308973.49</v>
       </c>
       <c r="G87" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3508,7 +3511,7 @@
         <v>63597.7</v>
       </c>
       <c r="C88" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3520,7 +3523,7 @@
         <v>65063.29</v>
       </c>
       <c r="G88" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3531,7 +3534,7 @@
         <v>4104378.46</v>
       </c>
       <c r="C89" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3543,7 +3546,7 @@
         <v>4172776.48</v>
       </c>
       <c r="G89" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3554,7 +3557,7 @@
         <v>44527.75</v>
       </c>
       <c r="C90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3566,7 +3569,7 @@
         <v>44527.75</v>
       </c>
       <c r="G90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3577,7 +3580,7 @@
         <v>754773.74</v>
       </c>
       <c r="C91" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3589,7 +3592,7 @@
         <v>772425.01</v>
       </c>
       <c r="G91" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3597,22 +3600,19 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>95</v>
+        <v>203.83</v>
       </c>
       <c r="C92" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D92">
-        <v>570</v>
+        <v>203.83</v>
       </c>
       <c r="E92">
-        <v>522.5</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>47.5</v>
-      </c>
-      <c r="G92" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3620,22 +3620,22 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>255185.77</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D93">
-        <v>2534.16</v>
+        <v>570</v>
       </c>
       <c r="E93">
-        <v>90189.42</v>
+        <v>522.5</v>
       </c>
       <c r="F93">
-        <v>342841.03</v>
+        <v>47.5</v>
       </c>
       <c r="G93" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3643,22 +3643,22 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>164652.85</v>
+        <v>255185.77</v>
       </c>
       <c r="C94" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D94">
-        <v>4100.99</v>
+        <v>2534.16</v>
       </c>
       <c r="E94">
-        <v>17552.93</v>
+        <v>90189.42</v>
       </c>
       <c r="F94">
-        <v>178104.79</v>
+        <v>342841.03</v>
       </c>
       <c r="G94" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3666,22 +3666,22 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>199535.97</v>
+        <v>164652.85</v>
       </c>
       <c r="C95" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>4100.99</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>17552.93</v>
       </c>
       <c r="F95">
-        <v>199535.97</v>
+        <v>178104.79</v>
       </c>
       <c r="G95" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3689,22 +3689,22 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>7481.16</v>
+        <v>199535.97</v>
       </c>
       <c r="C96" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D96">
-        <v>7481.16</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>7481.16</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>7481.16</v>
+        <v>199535.97</v>
       </c>
       <c r="G96" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3712,22 +3712,22 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>246534.08</v>
+        <v>7481.16</v>
       </c>
       <c r="C97" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D97">
-        <v>246534.08</v>
+        <v>7481.16</v>
       </c>
       <c r="E97">
-        <v>245192.06</v>
+        <v>7481.16</v>
       </c>
       <c r="F97">
-        <v>245192.06</v>
+        <v>7481.16</v>
       </c>
       <c r="G97" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3735,22 +3735,22 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>45575.48</v>
+        <v>246534.08</v>
       </c>
       <c r="C98" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D98">
-        <v>45575.48</v>
+        <v>246534.08</v>
       </c>
       <c r="E98">
-        <v>47124.89</v>
+        <v>245192.06</v>
       </c>
       <c r="F98">
-        <v>47124.89</v>
+        <v>245192.06</v>
       </c>
       <c r="G98" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3758,22 +3758,22 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>3006.07</v>
+        <v>45575.48</v>
       </c>
       <c r="C99" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D99">
-        <v>3006.07</v>
+        <v>45575.48</v>
       </c>
       <c r="E99">
-        <v>2988.64</v>
+        <v>47124.89</v>
       </c>
       <c r="F99">
-        <v>2988.64</v>
+        <v>47124.89</v>
       </c>
       <c r="G99" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3781,22 +3781,22 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>489507.01</v>
+        <v>3006.07</v>
       </c>
       <c r="C100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D100">
-        <v>3203986.07</v>
+        <v>3006.07</v>
       </c>
       <c r="E100">
-        <v>2933864.15</v>
+        <v>2988.64</v>
       </c>
       <c r="F100">
-        <v>219385.09</v>
+        <v>2988.64</v>
       </c>
       <c r="G100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3804,22 +3804,22 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>9976.620000000001</v>
+        <v>489507.01</v>
       </c>
       <c r="C101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>3203986.07</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>2933864.15</v>
       </c>
       <c r="F101">
-        <v>9976.620000000001</v>
+        <v>219385.09</v>
       </c>
       <c r="G101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3827,19 +3827,22 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>9976.620000000001</v>
+      </c>
+      <c r="C102" t="s">
+        <v>393</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>23508.31</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>23508.31</v>
+        <v>9976.620000000001</v>
       </c>
       <c r="G102" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3847,22 +3850,19 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>22822.53</v>
-      </c>
-      <c r="C103" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>33550.75</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>32827.71</v>
+        <v>23508.31</v>
       </c>
       <c r="F103">
-        <v>22099.49</v>
+        <v>23508.31</v>
       </c>
       <c r="G103" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3870,16 +3870,22 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>22822.53</v>
+      </c>
+      <c r="C104" t="s">
+        <v>393</v>
       </c>
       <c r="D104">
-        <v>208008.77</v>
+        <v>33550.75</v>
       </c>
       <c r="E104">
-        <v>208008.77</v>
+        <v>32827.71</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>22099.49</v>
+      </c>
+      <c r="G104" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3890,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>7455.95</v>
+        <v>208008.77</v>
       </c>
       <c r="E105">
-        <v>7455.95</v>
+        <v>208008.77</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3907,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>3412.49</v>
+        <v>7455.95</v>
       </c>
       <c r="E106">
-        <v>3412.49</v>
+        <v>7455.95</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3924,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>151379.62</v>
+        <v>3412.49</v>
       </c>
       <c r="E107">
-        <v>151379.62</v>
+        <v>3412.49</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3938,22 +3944,16 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>19249.59</v>
-      </c>
-      <c r="C108" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>29862.23</v>
+        <v>151379.62</v>
       </c>
       <c r="E108">
-        <v>30522.72</v>
+        <v>151379.62</v>
       </c>
       <c r="F108">
-        <v>19910.08</v>
-      </c>
-      <c r="G108" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3961,16 +3961,22 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>19249.59</v>
+      </c>
+      <c r="C109" t="s">
+        <v>393</v>
       </c>
       <c r="D109">
-        <v>916.9299999999999</v>
+        <v>29862.23</v>
       </c>
       <c r="E109">
-        <v>916.9299999999999</v>
+        <v>30522.72</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>19910.08</v>
+      </c>
+      <c r="G109" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3978,22 +3984,16 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>93586.77</v>
-      </c>
-      <c r="C110" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>93586.77</v>
+        <v>916.9299999999999</v>
       </c>
       <c r="E110">
-        <v>93077.35000000001</v>
+        <v>916.9299999999999</v>
       </c>
       <c r="F110">
-        <v>93077.35000000001</v>
-      </c>
-      <c r="G110" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4001,16 +4001,22 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>93586.77</v>
+      </c>
+      <c r="C111" t="s">
+        <v>393</v>
       </c>
       <c r="D111">
-        <v>155.64</v>
+        <v>93586.77</v>
       </c>
       <c r="E111">
-        <v>155.64</v>
+        <v>93077.35000000001</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>93077.35000000001</v>
+      </c>
+      <c r="G111" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4018,22 +4024,16 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>1620.28</v>
-      </c>
-      <c r="C112" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>32089.86</v>
+        <v>155.64</v>
       </c>
       <c r="E112">
-        <v>32292.08</v>
+        <v>155.64</v>
       </c>
       <c r="F112">
-        <v>1822.5</v>
-      </c>
-      <c r="G112" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4041,19 +4041,22 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>2500</v>
+        <v>1620.28</v>
       </c>
       <c r="C113" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D113">
-        <v>3098.89</v>
+        <v>32089.86</v>
       </c>
       <c r="E113">
-        <v>598.89</v>
+        <v>32292.08</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1822.5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4061,22 +4064,19 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>1165312.26</v>
+        <v>2500</v>
       </c>
       <c r="C114" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D114">
-        <v>125916.93</v>
+        <v>3098.89</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>598.89</v>
       </c>
       <c r="F114">
-        <v>1039395.33</v>
-      </c>
-      <c r="G114" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4084,22 +4084,22 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>2039650.72</v>
+        <v>1165312.26</v>
       </c>
       <c r="C115" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>125916.93</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>2039650.72</v>
+        <v>1039395.33</v>
       </c>
       <c r="G115" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4107,10 +4107,10 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>2026515.57</v>
+        <v>2039650.72</v>
       </c>
       <c r="C116" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>2026515.57</v>
+        <v>2039650.72</v>
       </c>
       <c r="G116" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4130,10 +4130,10 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>32641460.54</v>
+        <v>2026515.57</v>
       </c>
       <c r="C117" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -4142,10 +4142,10 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>32641460.54</v>
+        <v>2026515.57</v>
       </c>
       <c r="G117" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4153,10 +4153,10 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>321492.88</v>
+        <v>32641460.54</v>
       </c>
       <c r="C118" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -4165,10 +4165,10 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>321492.88</v>
+        <v>32641460.54</v>
       </c>
       <c r="G118" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4176,10 +4176,10 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>2611316.84</v>
+        <v>321492.88</v>
       </c>
       <c r="C119" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>2611316.84</v>
+        <v>321492.88</v>
       </c>
       <c r="G119" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4199,7 +4199,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>57996431.03</v>
+        <v>2611316.84</v>
       </c>
       <c r="C120" t="s">
         <v>392</v>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>57996431.03</v>
+        <v>2611316.84</v>
       </c>
       <c r="G120" t="s">
         <v>392</v>
@@ -4222,10 +4222,10 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>10271567.99</v>
+        <v>57996431.03</v>
       </c>
       <c r="C121" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -4234,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>10271567.99</v>
+        <v>57996431.03</v>
       </c>
       <c r="G121" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4248,7 +4248,7 @@
         <v>10271567.99</v>
       </c>
       <c r="C122" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>10271567.99</v>
       </c>
       <c r="G122" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4268,10 +4268,10 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>4639714.48</v>
+        <v>10271567.99</v>
       </c>
       <c r="C123" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -4280,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>4639714.48</v>
+        <v>10271567.99</v>
       </c>
       <c r="G123" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4291,10 +4291,10 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>32948145.38</v>
+        <v>4639714.48</v>
       </c>
       <c r="C124" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -4303,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>32948145.38</v>
+        <v>4639714.48</v>
       </c>
       <c r="G124" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4314,7 +4314,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>711267.95</v>
+        <v>32948145.38</v>
       </c>
       <c r="C125" t="s">
         <v>392</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>711267.95</v>
+        <v>32948145.38</v>
       </c>
       <c r="G125" t="s">
         <v>392</v>
@@ -4337,10 +4337,10 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>64904829.06</v>
+        <v>711267.95</v>
       </c>
       <c r="C126" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -4349,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>64904829.06</v>
+        <v>711267.95</v>
       </c>
       <c r="G126" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4360,10 +4360,10 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>58329.71</v>
+        <v>64904829.06</v>
       </c>
       <c r="C127" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -4372,10 +4372,10 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>58329.71</v>
+        <v>64904829.06</v>
       </c>
       <c r="G127" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4383,7 +4383,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>45181524.67</v>
+        <v>58329.71</v>
       </c>
       <c r="C128" t="s">
         <v>392</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>45181524.67</v>
+        <v>58329.71</v>
       </c>
       <c r="G128" t="s">
         <v>392</v>
@@ -4406,10 +4406,10 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>44578143.43</v>
+        <v>45181524.67</v>
       </c>
       <c r="C129" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -4418,10 +4418,10 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>44578143.43</v>
+        <v>45181524.67</v>
       </c>
       <c r="G129" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4429,22 +4429,22 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>1935830.89</v>
+        <v>44578143.43</v>
       </c>
       <c r="C130" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D130">
-        <v>676822.12</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>2612653.01</v>
+        <v>44578143.43</v>
       </c>
       <c r="G130" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4452,22 +4452,22 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>16435.07</v>
+        <v>1935830.89</v>
       </c>
       <c r="C131" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D131">
-        <v>5258.37</v>
+        <v>676822.12</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
-        <v>21693.44</v>
+        <v>2612653.01</v>
       </c>
       <c r="G131" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4475,19 +4475,22 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>16435.07</v>
+      </c>
+      <c r="C132" t="s">
+        <v>392</v>
       </c>
       <c r="D132">
-        <v>131.02</v>
+        <v>5258.37</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <v>131.02</v>
+        <v>21693.44</v>
       </c>
       <c r="G132" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4495,22 +4498,19 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>128572.7</v>
-      </c>
-      <c r="C133" t="s">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>45588.5</v>
+        <v>131.02</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>174161.2</v>
+        <v>131.02</v>
       </c>
       <c r="G133" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4518,22 +4518,22 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>142.98</v>
+        <v>128572.7</v>
       </c>
       <c r="C134" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>45588.5</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>142.98</v>
+        <v>174161.2</v>
       </c>
       <c r="G134" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4541,22 +4541,22 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>138915.05</v>
+        <v>142.98</v>
       </c>
       <c r="C135" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D135">
-        <v>46175.36</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>185090.41</v>
+        <v>142.98</v>
       </c>
       <c r="G135" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4564,22 +4564,22 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>153823.65</v>
+        <v>138915.05</v>
       </c>
       <c r="C136" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D136">
-        <v>52357.92</v>
+        <v>46175.36</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>206181.57</v>
+        <v>185090.41</v>
       </c>
       <c r="G136" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4587,22 +4587,22 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>12000.36</v>
+        <v>153823.65</v>
       </c>
       <c r="C137" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D137">
-        <v>5463.77</v>
+        <v>52357.92</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
-        <v>17464.13</v>
+        <v>206181.57</v>
       </c>
       <c r="G137" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4610,22 +4610,22 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>34008.4</v>
+        <v>12000.36</v>
       </c>
       <c r="C138" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D138">
-        <v>15401.55</v>
+        <v>5463.77</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
       <c r="F138">
-        <v>49409.95</v>
+        <v>17464.13</v>
       </c>
       <c r="G138" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4633,22 +4633,22 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>205051.43</v>
+        <v>34008.4</v>
       </c>
       <c r="C139" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D139">
-        <v>70667.56</v>
+        <v>15401.55</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
       <c r="F139">
-        <v>275718.99</v>
+        <v>49409.95</v>
       </c>
       <c r="G139" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4656,22 +4656,22 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>78134.99000000001</v>
+        <v>205051.43</v>
       </c>
       <c r="C140" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D140">
-        <v>21420.28</v>
+        <v>70667.56</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <v>99555.27</v>
+        <v>275718.99</v>
       </c>
       <c r="G140" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4679,22 +4679,22 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>46495.13</v>
+        <v>78134.99000000001</v>
       </c>
       <c r="C141" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D141">
-        <v>22122.29</v>
+        <v>21420.28</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
-        <v>68617.42</v>
+        <v>99555.27</v>
       </c>
       <c r="G141" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4702,22 +4702,22 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>49905.88</v>
+        <v>46495.13</v>
       </c>
       <c r="C142" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D142">
-        <v>2287.6</v>
+        <v>22122.29</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>52193.48</v>
+        <v>68617.42</v>
       </c>
       <c r="G142" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4725,22 +4725,22 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>1590.93</v>
+        <v>49905.88</v>
       </c>
       <c r="C143" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D143">
-        <v>530.3099999999999</v>
+        <v>2287.6</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>2121.24</v>
+        <v>52193.48</v>
       </c>
       <c r="G143" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4748,22 +4748,22 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>2133.56</v>
+        <v>1590.93</v>
       </c>
       <c r="C144" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>530.3099999999999</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>2133.56</v>
+        <v>2121.24</v>
       </c>
       <c r="G144" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4771,22 +4771,22 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>55575.09</v>
+        <v>2133.56</v>
       </c>
       <c r="C145" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D145">
-        <v>19206</v>
+        <v>0</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>74781.09</v>
+        <v>2133.56</v>
       </c>
       <c r="G145" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4794,22 +4794,22 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>36814.17</v>
+        <v>55575.09</v>
       </c>
       <c r="C146" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D146">
-        <v>627.89</v>
+        <v>19206</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>37442.06</v>
+        <v>74781.09</v>
       </c>
       <c r="G146" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4817,22 +4817,22 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>2650.8</v>
+        <v>36814.17</v>
       </c>
       <c r="C147" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D147">
-        <v>1325.4</v>
+        <v>627.89</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>3976.2</v>
+        <v>37442.06</v>
       </c>
       <c r="G147" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4840,22 +4840,22 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>275407.77</v>
+        <v>2650.8</v>
       </c>
       <c r="C148" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D148">
-        <v>100420</v>
+        <v>1325.4</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>375827.77</v>
+        <v>3976.2</v>
       </c>
       <c r="G148" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4863,22 +4863,22 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>25268.3</v>
+        <v>275407.77</v>
       </c>
       <c r="C149" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D149">
-        <v>13580</v>
+        <v>100420</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>38848.3</v>
+        <v>375827.77</v>
       </c>
       <c r="G149" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4886,22 +4886,22 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>100.33</v>
+        <v>25268.3</v>
       </c>
       <c r="C150" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>13580</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>100.33</v>
+        <v>38848.3</v>
       </c>
       <c r="G150" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4909,19 +4909,22 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>100.33</v>
+      </c>
+      <c r="C151" t="s">
+        <v>392</v>
       </c>
       <c r="D151">
-        <v>15352.94</v>
+        <v>0</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>15352.94</v>
+        <v>100.33</v>
       </c>
       <c r="G151" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4929,22 +4932,19 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>61583.39</v>
-      </c>
-      <c r="C152" t="s">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>8462.809999999999</v>
+        <v>15352.94</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>70046.2</v>
+        <v>15352.94</v>
       </c>
       <c r="G152" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4952,22 +4952,22 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>705377.99</v>
+        <v>61583.39</v>
       </c>
       <c r="C153" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D153">
-        <v>245192.06</v>
+        <v>8462.809999999999</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>950570.05</v>
+        <v>70046.2</v>
       </c>
       <c r="G153" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4975,22 +4975,22 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>45059.49</v>
+        <v>705377.99</v>
       </c>
       <c r="C154" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>245192.06</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>45059.49</v>
+        <v>950570.05</v>
       </c>
       <c r="G154" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4998,22 +4998,22 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>147556.46</v>
+        <v>45059.49</v>
       </c>
       <c r="C155" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D155">
-        <v>53998.59</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155">
-        <v>201555.05</v>
+        <v>45059.49</v>
       </c>
       <c r="G155" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5021,22 +5021,22 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>9636.25</v>
+        <v>147556.46</v>
       </c>
       <c r="C156" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D156">
-        <v>2988.64</v>
+        <v>53998.59</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
       <c r="F156">
-        <v>12624.89</v>
+        <v>201555.05</v>
       </c>
       <c r="G156" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5044,22 +5044,22 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>259229.53</v>
+        <v>9636.25</v>
       </c>
       <c r="C157" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D157">
-        <v>152268.31</v>
+        <v>2988.64</v>
       </c>
       <c r="E157">
         <v>0</v>
       </c>
       <c r="F157">
-        <v>411497.84</v>
+        <v>12624.89</v>
       </c>
       <c r="G157" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5067,22 +5067,22 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>106347.05</v>
+        <v>259229.53</v>
       </c>
       <c r="C158" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D158">
-        <v>41306.84</v>
+        <v>152268.31</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
       <c r="F158">
-        <v>147653.89</v>
+        <v>411497.84</v>
       </c>
       <c r="G158" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5090,22 +5090,22 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>193533.24</v>
+        <v>106347.05</v>
       </c>
       <c r="C159" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>41306.84</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
       <c r="F159">
-        <v>193533.24</v>
+        <v>147653.89</v>
       </c>
       <c r="G159" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5113,22 +5113,22 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>50760.24</v>
+        <v>193533.24</v>
       </c>
       <c r="C160" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D160">
-        <v>16920.08</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
       <c r="F160">
-        <v>67680.32000000001</v>
+        <v>193533.24</v>
       </c>
       <c r="G160" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5136,22 +5136,22 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>167809.08</v>
+        <v>50760.24</v>
       </c>
       <c r="C161" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D161">
-        <v>55532.36</v>
+        <v>16920.08</v>
       </c>
       <c r="E161">
         <v>0</v>
       </c>
       <c r="F161">
-        <v>223341.44</v>
+        <v>67680.32000000001</v>
       </c>
       <c r="G161" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5159,22 +5159,22 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>48570.66</v>
+        <v>167809.08</v>
       </c>
       <c r="C162" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D162">
-        <v>12664.95</v>
+        <v>55532.36</v>
       </c>
       <c r="E162">
         <v>0</v>
       </c>
       <c r="F162">
-        <v>61235.61</v>
+        <v>223341.44</v>
       </c>
       <c r="G162" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5182,22 +5182,22 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>24610.24</v>
+        <v>48570.66</v>
       </c>
       <c r="C163" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D163">
-        <v>2186.66</v>
+        <v>12664.95</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
       <c r="F163">
-        <v>26796.9</v>
+        <v>61235.61</v>
       </c>
       <c r="G163" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5205,22 +5205,22 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>1126.3</v>
+        <v>24610.24</v>
       </c>
       <c r="C164" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D164">
-        <v>282.35</v>
+        <v>2186.66</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1408.65</v>
+        <v>26796.9</v>
       </c>
       <c r="G164" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5228,22 +5228,22 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>153536.16</v>
+        <v>1126.3</v>
       </c>
       <c r="C165" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D165">
-        <v>138046.79</v>
+        <v>282.35</v>
       </c>
       <c r="E165">
         <v>0</v>
       </c>
       <c r="F165">
-        <v>291582.95</v>
+        <v>1408.65</v>
       </c>
       <c r="G165" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5251,22 +5251,22 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>2609.39</v>
+        <v>153536.16</v>
       </c>
       <c r="C166" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D166">
-        <v>469.32</v>
+        <v>138046.79</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
       <c r="F166">
-        <v>3078.71</v>
+        <v>291582.95</v>
       </c>
       <c r="G166" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5274,22 +5274,22 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>282259.3</v>
+        <v>2609.39</v>
       </c>
       <c r="C167" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D167">
-        <v>149931.36</v>
+        <v>469.32</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
       <c r="F167">
-        <v>432190.66</v>
+        <v>3078.71</v>
       </c>
       <c r="G167" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5297,22 +5297,22 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>95743.7</v>
+        <v>282259.3</v>
       </c>
       <c r="C168" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D168">
-        <v>7029.85</v>
+        <v>149931.36</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
       <c r="F168">
-        <v>102773.55</v>
+        <v>432190.66</v>
       </c>
       <c r="G168" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5320,22 +5320,22 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>669</v>
+        <v>95743.7</v>
       </c>
       <c r="C169" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>7029.85</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
       <c r="F169">
-        <v>669</v>
+        <v>102773.55</v>
       </c>
       <c r="G169" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5343,10 +5343,10 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>25.1</v>
+        <v>669</v>
       </c>
       <c r="C170" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -5355,10 +5355,10 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>25.1</v>
+        <v>669</v>
       </c>
       <c r="G170" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5366,22 +5366,22 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>12312.5</v>
+        <v>25.1</v>
       </c>
       <c r="C171" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D171">
-        <v>6265</v>
+        <v>0</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
       <c r="F171">
-        <v>18577.5</v>
+        <v>25.1</v>
       </c>
       <c r="G171" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5389,22 +5389,22 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>3900</v>
+        <v>12312.5</v>
       </c>
       <c r="C172" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D172">
-        <v>674</v>
+        <v>6265</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172">
-        <v>4574</v>
+        <v>18577.5</v>
       </c>
       <c r="G172" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5412,22 +5412,22 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>16222.56</v>
+        <v>3900</v>
       </c>
       <c r="C173" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D173">
-        <v>10414.95</v>
+        <v>674</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
-        <v>26637.51</v>
+        <v>4574</v>
       </c>
       <c r="G173" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5435,19 +5435,22 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>16222.56</v>
+      </c>
+      <c r="C174" t="s">
+        <v>392</v>
       </c>
       <c r="D174">
-        <v>2730</v>
+        <v>10414.95</v>
       </c>
       <c r="E174">
         <v>0</v>
       </c>
       <c r="F174">
-        <v>2730</v>
+        <v>26637.51</v>
       </c>
       <c r="G174" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5455,22 +5458,19 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>413.82</v>
-      </c>
-      <c r="C175" t="s">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>2730</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>413.82</v>
+        <v>2730</v>
       </c>
       <c r="G175" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5478,10 +5478,10 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>2087.65</v>
+        <v>413.82</v>
       </c>
       <c r="C176" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -5490,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>2087.65</v>
+        <v>413.82</v>
       </c>
       <c r="G176" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5501,22 +5501,22 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>15913.38</v>
+        <v>2087.65</v>
       </c>
       <c r="C177" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D177">
-        <v>1776.72</v>
+        <v>0</v>
       </c>
       <c r="E177">
         <v>0</v>
       </c>
       <c r="F177">
-        <v>17690.1</v>
+        <v>2087.65</v>
       </c>
       <c r="G177" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5524,22 +5524,22 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>4310</v>
+        <v>15913.38</v>
       </c>
       <c r="C178" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>1776.72</v>
       </c>
       <c r="E178">
         <v>0</v>
       </c>
       <c r="F178">
-        <v>4310</v>
+        <v>17690.1</v>
       </c>
       <c r="G178" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5547,22 +5547,22 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>33578.2</v>
+        <v>4310</v>
       </c>
       <c r="C179" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D179">
-        <v>7153.9</v>
+        <v>0</v>
       </c>
       <c r="E179">
         <v>0</v>
       </c>
       <c r="F179">
-        <v>40732.1</v>
+        <v>4310</v>
       </c>
       <c r="G179" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5570,22 +5570,22 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>935.16</v>
+        <v>33578.2</v>
       </c>
       <c r="C180" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D180">
-        <v>1462.97</v>
+        <v>7153.9</v>
       </c>
       <c r="E180">
         <v>0</v>
       </c>
       <c r="F180">
-        <v>2398.13</v>
+        <v>40732.1</v>
       </c>
       <c r="G180" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5593,22 +5593,22 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>209890.34</v>
+        <v>935.16</v>
       </c>
       <c r="C181" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D181">
-        <v>4772</v>
+        <v>1462.97</v>
       </c>
       <c r="E181">
         <v>0</v>
       </c>
       <c r="F181">
-        <v>214662.34</v>
+        <v>2398.13</v>
       </c>
       <c r="G181" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5616,22 +5616,22 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>29611.3</v>
+        <v>209890.34</v>
       </c>
       <c r="C182" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D182">
-        <v>1993.5</v>
+        <v>4772</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
       <c r="F182">
-        <v>31604.8</v>
+        <v>214662.34</v>
       </c>
       <c r="G182" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5639,22 +5639,22 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>136</v>
+        <v>29611.3</v>
       </c>
       <c r="C183" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1993.5</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
       <c r="F183">
-        <v>136</v>
+        <v>31604.8</v>
       </c>
       <c r="G183" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5662,10 +5662,10 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>678</v>
+        <v>136</v>
       </c>
       <c r="C184" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -5674,10 +5674,10 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>678</v>
+        <v>136</v>
       </c>
       <c r="G184" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5685,22 +5685,22 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>3976</v>
+        <v>678</v>
       </c>
       <c r="C185" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D185">
-        <v>35240</v>
+        <v>0</v>
       </c>
       <c r="E185">
         <v>0</v>
       </c>
       <c r="F185">
-        <v>39216</v>
+        <v>678</v>
       </c>
       <c r="G185" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5708,22 +5708,22 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>225579.84</v>
+        <v>3976</v>
       </c>
       <c r="C186" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D186">
-        <v>51117.19</v>
+        <v>35240</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
       <c r="F186">
-        <v>276697.03</v>
+        <v>39216</v>
       </c>
       <c r="G186" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5731,22 +5731,22 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>53.7</v>
+        <v>225579.84</v>
       </c>
       <c r="C187" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>51117.19</v>
       </c>
       <c r="E187">
         <v>0</v>
       </c>
       <c r="F187">
-        <v>53.7</v>
+        <v>276697.03</v>
       </c>
       <c r="G187" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5754,22 +5754,22 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>16785.04</v>
+        <v>53.7</v>
       </c>
       <c r="C188" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D188">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E188">
         <v>0</v>
       </c>
       <c r="F188">
-        <v>16841.04</v>
+        <v>53.7</v>
       </c>
       <c r="G188" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5777,22 +5777,22 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>227927.96</v>
+        <v>16785.04</v>
       </c>
       <c r="C189" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D189">
-        <v>26072.5</v>
+        <v>56</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
       <c r="F189">
-        <v>254000.46</v>
+        <v>16841.04</v>
       </c>
       <c r="G189" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5800,22 +5800,22 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>152933.32</v>
+        <v>227927.96</v>
       </c>
       <c r="C190" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D190">
-        <v>54317.41</v>
+        <v>26072.5</v>
       </c>
       <c r="E190">
         <v>0</v>
       </c>
       <c r="F190">
-        <v>207250.73</v>
+        <v>254000.46</v>
       </c>
       <c r="G190" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5823,22 +5823,22 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>576</v>
+        <v>152933.32</v>
       </c>
       <c r="C191" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>54317.41</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
       <c r="F191">
-        <v>576</v>
+        <v>207250.73</v>
       </c>
       <c r="G191" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5846,10 +5846,10 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>10680</v>
+        <v>576</v>
       </c>
       <c r="C192" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -5858,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>10680</v>
+        <v>576</v>
       </c>
       <c r="G192" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5869,19 +5869,22 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>10680</v>
+      </c>
+      <c r="C193" t="s">
+        <v>392</v>
       </c>
       <c r="D193">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="E193">
         <v>0</v>
       </c>
       <c r="F193">
-        <v>320</v>
+        <v>10680</v>
       </c>
       <c r="G193" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5889,22 +5892,19 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>66846.71000000001</v>
-      </c>
-      <c r="C194" t="s">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D194">
-        <v>45821.2</v>
+        <v>320</v>
       </c>
       <c r="E194">
-        <v>6414.12</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>106253.79</v>
+        <v>320</v>
       </c>
       <c r="G194" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5912,22 +5912,22 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>15602.67</v>
+        <v>66846.71000000001</v>
       </c>
       <c r="C195" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D195">
-        <v>6301.04</v>
+        <v>45821.2</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>6414.12</v>
       </c>
       <c r="F195">
-        <v>21903.71</v>
+        <v>106253.79</v>
       </c>
       <c r="G195" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5935,22 +5935,22 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>9240</v>
+        <v>15602.67</v>
       </c>
       <c r="C196" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D196">
-        <v>8780</v>
+        <v>6301.04</v>
       </c>
       <c r="E196">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>16270</v>
+        <v>21903.71</v>
       </c>
       <c r="G196" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5958,22 +5958,22 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>1600</v>
+        <v>9240</v>
       </c>
       <c r="C197" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D197">
-        <v>2058.84</v>
+        <v>8780</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="F197">
-        <v>3658.84</v>
+        <v>16270</v>
       </c>
       <c r="G197" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5981,22 +5981,22 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>2177.4</v>
+        <v>1600</v>
       </c>
       <c r="C198" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D198">
-        <v>380.9</v>
+        <v>2058.84</v>
       </c>
       <c r="E198">
         <v>0</v>
       </c>
       <c r="F198">
-        <v>2558.3</v>
+        <v>3658.84</v>
       </c>
       <c r="G198" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6004,22 +6004,22 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>730</v>
+        <v>2177.4</v>
       </c>
       <c r="C199" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>380.9</v>
       </c>
       <c r="E199">
         <v>0</v>
       </c>
       <c r="F199">
-        <v>730</v>
+        <v>2558.3</v>
       </c>
       <c r="G199" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6027,22 +6027,22 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>10761.5</v>
+        <v>730</v>
       </c>
       <c r="C200" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D200">
-        <v>2906.46</v>
+        <v>0</v>
       </c>
       <c r="E200">
         <v>0</v>
       </c>
       <c r="F200">
-        <v>13667.96</v>
+        <v>730</v>
       </c>
       <c r="G200" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6050,22 +6050,22 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>2450.2</v>
+        <v>10761.5</v>
       </c>
       <c r="C201" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D201">
-        <v>1199</v>
+        <v>2906.46</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <v>3649.2</v>
+        <v>13667.96</v>
       </c>
       <c r="G201" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6073,22 +6073,22 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>346289.01</v>
+        <v>2450.2</v>
       </c>
       <c r="C202" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D202">
-        <v>375345.42</v>
+        <v>1199</v>
       </c>
       <c r="E202">
-        <v>832</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>720802.4300000001</v>
+        <v>3649.2</v>
       </c>
       <c r="G202" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6096,22 +6096,22 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>29411.16</v>
+        <v>346289.01</v>
       </c>
       <c r="C203" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D203">
-        <v>6200.58</v>
+        <v>375345.42</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="F203">
-        <v>35611.74</v>
+        <v>720802.4300000001</v>
       </c>
       <c r="G203" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6119,22 +6119,22 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>227188.89</v>
+        <v>29411.16</v>
       </c>
       <c r="C204" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D204">
-        <v>52083.84</v>
+        <v>6200.58</v>
       </c>
       <c r="E204">
         <v>0</v>
       </c>
       <c r="F204">
-        <v>279272.73</v>
+        <v>35611.74</v>
       </c>
       <c r="G204" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6142,22 +6142,22 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>2100</v>
+        <v>227188.89</v>
       </c>
       <c r="C205" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D205">
-        <v>13750</v>
+        <v>52083.84</v>
       </c>
       <c r="E205">
         <v>0</v>
       </c>
       <c r="F205">
-        <v>15850</v>
+        <v>279272.73</v>
       </c>
       <c r="G205" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6165,22 +6165,22 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>41003.55</v>
+        <v>2100</v>
       </c>
       <c r="C206" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D206">
-        <v>20542.55</v>
+        <v>13750</v>
       </c>
       <c r="E206">
         <v>0</v>
       </c>
       <c r="F206">
-        <v>61546.1</v>
+        <v>15850</v>
       </c>
       <c r="G206" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6188,22 +6188,22 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>20973.07</v>
+        <v>41003.55</v>
       </c>
       <c r="C207" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D207">
-        <v>62342.44</v>
+        <v>20542.55</v>
       </c>
       <c r="E207">
         <v>0</v>
       </c>
       <c r="F207">
-        <v>83315.50999999999</v>
+        <v>61546.1</v>
       </c>
       <c r="G207" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6211,22 +6211,22 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>781.42</v>
+        <v>20973.07</v>
       </c>
       <c r="C208" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D208">
-        <v>687.96</v>
+        <v>62342.44</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1469.38</v>
+        <v>83315.50999999999</v>
       </c>
       <c r="G208" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6234,19 +6234,22 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>781.42</v>
+      </c>
+      <c r="C209" t="s">
+        <v>392</v>
       </c>
       <c r="D209">
-        <v>5200</v>
+        <v>687.96</v>
       </c>
       <c r="E209">
         <v>0</v>
       </c>
       <c r="F209">
-        <v>5200</v>
+        <v>1469.38</v>
       </c>
       <c r="G209" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6254,22 +6257,19 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>1500</v>
-      </c>
-      <c r="C210" t="s">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1500</v>
+        <v>5200</v>
       </c>
       <c r="G210" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6277,19 +6277,22 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="C211" t="s">
+        <v>392</v>
       </c>
       <c r="D211">
-        <v>23508.31</v>
+        <v>0</v>
       </c>
       <c r="E211">
         <v>0</v>
       </c>
       <c r="F211">
-        <v>23508.31</v>
+        <v>1500</v>
       </c>
       <c r="G211" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6297,22 +6300,19 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>1200</v>
-      </c>
-      <c r="C212" t="s">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D212">
-        <v>1200</v>
+        <v>23508.31</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="F212">
-        <v>2400</v>
+        <v>23508.31</v>
       </c>
       <c r="G212" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6320,22 +6320,22 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>6556.97</v>
+        <v>1200</v>
       </c>
       <c r="C213" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D213">
-        <v>3363.44</v>
+        <v>1200</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
       <c r="F213">
-        <v>9920.41</v>
+        <v>2400</v>
       </c>
       <c r="G213" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6343,22 +6343,22 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>22997</v>
+        <v>6556.97</v>
       </c>
       <c r="C214" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D214">
-        <v>14499</v>
+        <v>3363.44</v>
       </c>
       <c r="E214">
         <v>0</v>
       </c>
       <c r="F214">
-        <v>37496</v>
+        <v>9920.41</v>
       </c>
       <c r="G214" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6366,22 +6366,22 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>270483.17</v>
+        <v>22997</v>
       </c>
       <c r="C215" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D215">
-        <v>89172.39999999999</v>
+        <v>14499</v>
       </c>
       <c r="E215">
         <v>0</v>
       </c>
       <c r="F215">
-        <v>359655.57</v>
+        <v>37496</v>
       </c>
       <c r="G215" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6389,22 +6389,22 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>721.9</v>
+        <v>270483.17</v>
       </c>
       <c r="C216" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D216">
-        <v>1294</v>
+        <v>89172.39999999999</v>
       </c>
       <c r="E216">
         <v>0</v>
       </c>
       <c r="F216">
-        <v>2015.9</v>
+        <v>359655.57</v>
       </c>
       <c r="G216" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6412,22 +6412,22 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>3500</v>
+        <v>721.9</v>
       </c>
       <c r="C217" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>1294</v>
       </c>
       <c r="E217">
         <v>0</v>
       </c>
       <c r="F217">
-        <v>3500</v>
+        <v>2015.9</v>
       </c>
       <c r="G217" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6435,22 +6435,22 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>26145.18</v>
+        <v>3500</v>
       </c>
       <c r="C218" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D218">
-        <v>17117.44</v>
+        <v>0</v>
       </c>
       <c r="E218">
         <v>0</v>
       </c>
       <c r="F218">
-        <v>43262.62</v>
+        <v>3500</v>
       </c>
       <c r="G218" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6458,22 +6458,22 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>185</v>
+        <v>26145.18</v>
       </c>
       <c r="C219" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>17117.44</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
       <c r="F219">
-        <v>185</v>
+        <v>43262.62</v>
       </c>
       <c r="G219" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6481,10 +6481,10 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>168.43</v>
+        <v>185</v>
       </c>
       <c r="C220" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -6493,10 +6493,10 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>168.43</v>
+        <v>185</v>
       </c>
       <c r="G220" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6504,10 +6504,10 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>490</v>
+        <v>168.43</v>
       </c>
       <c r="C221" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -6516,10 +6516,10 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>490</v>
+        <v>168.43</v>
       </c>
       <c r="G221" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6527,22 +6527,22 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>33852.02</v>
+        <v>490</v>
       </c>
       <c r="C222" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D222">
-        <v>13168</v>
+        <v>0</v>
       </c>
       <c r="E222">
         <v>0</v>
       </c>
       <c r="F222">
-        <v>47020.02</v>
+        <v>490</v>
       </c>
       <c r="G222" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6550,22 +6550,22 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>394.51</v>
+        <v>33852.02</v>
       </c>
       <c r="C223" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D223">
-        <v>155.91</v>
+        <v>13168</v>
       </c>
       <c r="E223">
         <v>0</v>
       </c>
       <c r="F223">
-        <v>550.42</v>
+        <v>47020.02</v>
       </c>
       <c r="G223" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6573,22 +6573,22 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>5897.6</v>
+        <v>394.51</v>
       </c>
       <c r="C224" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D224">
-        <v>4550.9</v>
+        <v>155.91</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
       <c r="F224">
-        <v>10448.5</v>
+        <v>550.42</v>
       </c>
       <c r="G224" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6596,22 +6596,22 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>346588.78</v>
+        <v>5897.6</v>
       </c>
       <c r="C225" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D225">
-        <v>116261.88</v>
+        <v>4550.9</v>
       </c>
       <c r="E225">
         <v>0</v>
       </c>
       <c r="F225">
-        <v>462850.66</v>
+        <v>10448.5</v>
       </c>
       <c r="G225" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6619,22 +6619,22 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>52953.81</v>
+        <v>346588.78</v>
       </c>
       <c r="C226" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D226">
-        <v>17651.27</v>
+        <v>116261.88</v>
       </c>
       <c r="E226">
         <v>0</v>
       </c>
       <c r="F226">
-        <v>70605.08</v>
+        <v>462850.66</v>
       </c>
       <c r="G226" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6642,22 +6642,22 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>208.24</v>
+        <v>52953.81</v>
       </c>
       <c r="C227" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>17651.27</v>
       </c>
       <c r="E227">
         <v>0</v>
       </c>
       <c r="F227">
-        <v>208.24</v>
+        <v>70605.08</v>
       </c>
       <c r="G227" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6665,10 +6665,10 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>216736.02</v>
+        <v>208.24</v>
       </c>
       <c r="C228" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -6677,10 +6677,10 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>216736.02</v>
+        <v>208.24</v>
       </c>
       <c r="G228" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6688,22 +6688,22 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>377687.74</v>
+        <v>216736.02</v>
       </c>
       <c r="C229" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D229">
-        <v>125916.93</v>
+        <v>0</v>
       </c>
       <c r="E229">
         <v>0</v>
       </c>
       <c r="F229">
-        <v>503604.67</v>
+        <v>216736.02</v>
       </c>
       <c r="G229" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6711,19 +6711,22 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>377687.74</v>
+      </c>
+      <c r="C230" t="s">
+        <v>392</v>
       </c>
       <c r="D230">
-        <v>180.88</v>
+        <v>125916.93</v>
       </c>
       <c r="E230">
         <v>0</v>
       </c>
       <c r="F230">
-        <v>180.88</v>
+        <v>503604.67</v>
       </c>
       <c r="G230" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6731,22 +6734,19 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>1328936.69</v>
-      </c>
-      <c r="C231" t="s">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D231">
-        <v>442725.94</v>
+        <v>180.88</v>
       </c>
       <c r="E231">
-        <v>5.49</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1771657.14</v>
+        <v>180.88</v>
       </c>
       <c r="G231" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6754,22 +6754,22 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>25181.82</v>
+        <v>1328936.69</v>
       </c>
       <c r="C232" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>442725.94</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="F232">
-        <v>25181.82</v>
+        <v>1771657.14</v>
       </c>
       <c r="G232" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6777,10 +6777,10 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>12000</v>
+        <v>25181.82</v>
       </c>
       <c r="C233" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -6789,10 +6789,10 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>12000</v>
+        <v>25181.82</v>
       </c>
       <c r="G233" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6800,22 +6800,22 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>30889.36</v>
+        <v>12000</v>
       </c>
       <c r="C234" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D234">
-        <v>5444.68</v>
+        <v>0</v>
       </c>
       <c r="E234">
         <v>0</v>
       </c>
       <c r="F234">
-        <v>36334.04</v>
+        <v>12000</v>
       </c>
       <c r="G234" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6823,22 +6823,22 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>71270</v>
+        <v>30889.36</v>
       </c>
       <c r="C235" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D235">
-        <v>24500</v>
+        <v>5444.68</v>
       </c>
       <c r="E235">
         <v>0</v>
       </c>
       <c r="F235">
-        <v>95770</v>
+        <v>36334.04</v>
       </c>
       <c r="G235" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6846,22 +6846,22 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>203.83</v>
+        <v>71270</v>
       </c>
       <c r="C236" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>24500</v>
       </c>
       <c r="E236">
         <v>0</v>
       </c>
       <c r="F236">
-        <v>203.83</v>
+        <v>95770</v>
       </c>
       <c r="G236" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6869,10 +6869,10 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>111428.17</v>
+        <v>203.83</v>
       </c>
       <c r="C237" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -6881,10 +6881,10 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>111428.17</v>
+        <v>203.83</v>
       </c>
       <c r="G237" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6892,22 +6892,22 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>9167.33</v>
+        <v>111428.17</v>
       </c>
       <c r="C238" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D238">
-        <v>22615.34</v>
+        <v>0</v>
       </c>
       <c r="E238">
         <v>0</v>
       </c>
       <c r="F238">
-        <v>31782.67</v>
+        <v>111428.17</v>
       </c>
       <c r="G238" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6915,22 +6915,22 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>16503.65</v>
+        <v>9167.33</v>
       </c>
       <c r="C239" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D239">
-        <v>4659.26</v>
+        <v>22615.34</v>
       </c>
       <c r="E239">
         <v>0</v>
       </c>
       <c r="F239">
-        <v>21162.91</v>
+        <v>31782.67</v>
       </c>
       <c r="G239" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6938,22 +6938,22 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>152.78</v>
+        <v>16503.65</v>
       </c>
       <c r="C240" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>4659.26</v>
       </c>
       <c r="E240">
         <v>0</v>
       </c>
       <c r="F240">
-        <v>152.78</v>
+        <v>21162.91</v>
       </c>
       <c r="G240" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6961,22 +6961,22 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>17137.49</v>
+        <v>152.78</v>
       </c>
       <c r="C241" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D241">
-        <v>17984.22</v>
+        <v>0</v>
       </c>
       <c r="E241">
         <v>0</v>
       </c>
       <c r="F241">
-        <v>35121.71</v>
+        <v>152.78</v>
       </c>
       <c r="G241" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6984,22 +6984,22 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>377687.74</v>
+        <v>17137.49</v>
       </c>
       <c r="C242" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D242">
-        <v>125916.93</v>
+        <v>17984.22</v>
       </c>
       <c r="E242">
         <v>0</v>
       </c>
       <c r="F242">
-        <v>503604.67</v>
+        <v>35121.71</v>
       </c>
       <c r="G242" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7007,22 +7007,22 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>88.78</v>
+        <v>377687.74</v>
       </c>
       <c r="C243" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>125916.93</v>
       </c>
       <c r="E243">
         <v>0</v>
       </c>
       <c r="F243">
-        <v>88.78</v>
+        <v>503604.67</v>
       </c>
       <c r="G243" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7033,7 +7033,7 @@
         <v>88.78</v>
       </c>
       <c r="C244" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>88.78</v>
       </c>
       <c r="G244" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7053,22 +7053,22 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>92193.5</v>
+        <v>88.78</v>
       </c>
       <c r="C245" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D245">
-        <v>32827.71</v>
+        <v>0</v>
       </c>
       <c r="E245">
         <v>0</v>
       </c>
       <c r="F245">
-        <v>125021.21</v>
+        <v>88.78</v>
       </c>
       <c r="G245" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7076,22 +7076,22 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>2000</v>
+        <v>92193.5</v>
       </c>
       <c r="C246" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D246">
-        <v>1000</v>
+        <v>32827.71</v>
       </c>
       <c r="E246">
         <v>0</v>
       </c>
       <c r="F246">
-        <v>3000</v>
+        <v>125021.21</v>
       </c>
       <c r="G246" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7099,22 +7099,22 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>12795.81</v>
+        <v>2000</v>
       </c>
       <c r="C247" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D247">
-        <v>4998.81</v>
+        <v>1000</v>
       </c>
       <c r="E247">
         <v>0</v>
       </c>
       <c r="F247">
-        <v>17794.62</v>
+        <v>3000</v>
       </c>
       <c r="G247" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7122,19 +7122,22 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>12795.81</v>
+      </c>
+      <c r="C248" t="s">
+        <v>392</v>
       </c>
       <c r="D248">
-        <v>2120.02</v>
+        <v>4998.81</v>
       </c>
       <c r="E248">
         <v>0</v>
       </c>
       <c r="F248">
-        <v>2120.02</v>
+        <v>17794.62</v>
       </c>
       <c r="G248" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7142,22 +7145,19 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>491473.84</v>
-      </c>
-      <c r="C249" t="s">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D249">
-        <v>7481.16</v>
+        <v>2120.02</v>
       </c>
       <c r="E249">
         <v>0</v>
       </c>
       <c r="F249">
-        <v>498955</v>
+        <v>2120.02</v>
       </c>
       <c r="G249" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7165,22 +7165,22 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>4196.99</v>
+        <v>491473.84</v>
       </c>
       <c r="C250" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D250">
-        <v>1249.51</v>
+        <v>7481.16</v>
       </c>
       <c r="E250">
         <v>0</v>
       </c>
       <c r="F250">
-        <v>5446.5</v>
+        <v>498955</v>
       </c>
       <c r="G250" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7188,22 +7188,22 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>1543000</v>
+        <v>4196.99</v>
       </c>
       <c r="C251" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>1249.51</v>
       </c>
       <c r="E251">
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1543000</v>
+        <v>5446.5</v>
       </c>
       <c r="G251" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7211,7 +7211,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>661119.52</v>
+        <v>1543000</v>
       </c>
       <c r="C252" t="s">
         <v>392</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>661119.52</v>
+        <v>1543000</v>
       </c>
       <c r="G252" t="s">
         <v>392</v>
@@ -7234,22 +7234,22 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>225978.34</v>
+        <v>661119.52</v>
       </c>
       <c r="C253" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>89818.10000000001</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>315796.44</v>
+        <v>661119.52</v>
       </c>
       <c r="G253" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7257,22 +7257,22 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>110184</v>
+        <v>225978.34</v>
       </c>
       <c r="C254" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D254">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="E254">
-        <v>67326</v>
+        <v>89818.10000000001</v>
       </c>
       <c r="F254">
-        <v>175470</v>
+        <v>315796.44</v>
       </c>
       <c r="G254" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7280,22 +7280,22 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>146430.03</v>
+        <v>110184</v>
       </c>
       <c r="C255" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="E255">
-        <v>48585.91</v>
+        <v>67326</v>
       </c>
       <c r="F255">
-        <v>195015.94</v>
+        <v>175470</v>
       </c>
       <c r="G255" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7303,22 +7303,22 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>1208</v>
+        <v>146430.03</v>
       </c>
       <c r="C256" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>151</v>
+        <v>48585.91</v>
       </c>
       <c r="F256">
-        <v>1359</v>
+        <v>195015.94</v>
       </c>
       <c r="G256" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7326,22 +7326,22 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>1514</v>
+        <v>1208</v>
       </c>
       <c r="C257" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="F257">
-        <v>1514</v>
+        <v>1359</v>
       </c>
       <c r="G257" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7349,22 +7349,22 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>14521</v>
+        <v>1514</v>
       </c>
       <c r="C258" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D258">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E258">
-        <v>5316.25</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>19837</v>
+        <v>1514</v>
       </c>
       <c r="G258" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7372,22 +7372,22 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>250810.35</v>
+        <v>14521</v>
       </c>
       <c r="C259" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>5316.25</v>
       </c>
       <c r="F259">
-        <v>250810.35</v>
+        <v>19837</v>
       </c>
       <c r="G259" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7395,22 +7395,22 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>284873.54</v>
+        <v>250810.35</v>
       </c>
       <c r="C260" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>93077.35000000001</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>377950.89</v>
+        <v>250810.35</v>
       </c>
       <c r="G260" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7418,22 +7418,22 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>460925.93</v>
+        <v>284873.54</v>
       </c>
       <c r="C261" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D261">
         <v>0</v>
       </c>
       <c r="E261">
-        <v>106373.98</v>
+        <v>93077.35000000001</v>
       </c>
       <c r="F261">
-        <v>567299.91</v>
+        <v>377950.89</v>
       </c>
       <c r="G261" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7441,22 +7441,22 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>1717</v>
+        <v>460925.93</v>
       </c>
       <c r="C262" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>106373.98</v>
       </c>
       <c r="F262">
-        <v>1717</v>
+        <v>567299.91</v>
       </c>
       <c r="G262" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7464,22 +7464,22 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>287794.55</v>
+        <v>1717</v>
       </c>
       <c r="C263" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>138818.08</v>
+        <v>0</v>
       </c>
       <c r="F263">
-        <v>426612.63</v>
+        <v>1717</v>
       </c>
       <c r="G263" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7487,22 +7487,22 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>51402.63</v>
+        <v>287794.55</v>
       </c>
       <c r="C264" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>19221.45</v>
+        <v>138818.08</v>
       </c>
       <c r="F264">
-        <v>70624.08</v>
+        <v>426612.63</v>
       </c>
       <c r="G264" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7510,22 +7510,22 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>58819</v>
+        <v>51402.63</v>
       </c>
       <c r="C265" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>21035</v>
+        <v>19221.45</v>
       </c>
       <c r="F265">
-        <v>79854</v>
+        <v>70624.08</v>
       </c>
       <c r="G265" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7533,22 +7533,22 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>3295</v>
+        <v>58819</v>
       </c>
       <c r="C266" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>2862.5</v>
+        <v>21035</v>
       </c>
       <c r="F266">
-        <v>6157.5</v>
+        <v>79854</v>
       </c>
       <c r="G266" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7556,22 +7556,22 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>17668.26</v>
+        <v>3295</v>
       </c>
       <c r="C267" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>17768.39</v>
+        <v>2862.5</v>
       </c>
       <c r="F267">
-        <v>35436.65</v>
+        <v>6157.5</v>
       </c>
       <c r="G267" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7579,22 +7579,22 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>1843.85</v>
+        <v>17668.26</v>
       </c>
       <c r="C268" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
-        <v>170.71</v>
+        <v>17768.39</v>
       </c>
       <c r="F268">
-        <v>2014.56</v>
+        <v>35436.65</v>
       </c>
       <c r="G268" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -7602,22 +7602,22 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>99.93000000000001</v>
+        <v>1843.85</v>
       </c>
       <c r="C269" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>170.71</v>
       </c>
       <c r="F269">
-        <v>99.93000000000001</v>
+        <v>2014.56</v>
       </c>
       <c r="G269" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7625,10 +7625,10 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>1.44</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="C270" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -7637,10 +7637,10 @@
         <v>0</v>
       </c>
       <c r="F270">
-        <v>1.44</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="G270" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -7648,22 +7648,22 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>23.68</v>
+        <v>1.44</v>
       </c>
       <c r="C271" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D271">
-        <v>4851.16</v>
+        <v>0</v>
       </c>
       <c r="E271">
-        <v>4851.16</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>23.68</v>
+        <v>1.44</v>
       </c>
       <c r="G271" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -7671,22 +7671,22 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>216736.02</v>
+        <v>23.68</v>
       </c>
       <c r="C272" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>4851.16</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>4851.16</v>
       </c>
       <c r="F272">
-        <v>216736.02</v>
+        <v>23.68</v>
       </c>
       <c r="G272" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -7694,22 +7694,22 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>387.72</v>
+        <v>216736.02</v>
       </c>
       <c r="C273" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D273">
-        <v>2575.41</v>
+        <v>0</v>
       </c>
       <c r="E273">
-        <v>2575.41</v>
+        <v>0</v>
       </c>
       <c r="F273">
-        <v>387.72</v>
+        <v>216736.02</v>
       </c>
       <c r="G273" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -7717,22 +7717,22 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>19580.94</v>
+        <v>387.72</v>
       </c>
       <c r="C274" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>2575.41</v>
       </c>
       <c r="E274">
-        <v>13146.5</v>
+        <v>2575.41</v>
       </c>
       <c r="F274">
-        <v>32727.44</v>
+        <v>387.72</v>
       </c>
       <c r="G274" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -7740,22 +7740,22 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>973022.8199999999</v>
+        <v>19580.94</v>
       </c>
       <c r="C275" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D275">
-        <v>6468.28</v>
+        <v>0</v>
       </c>
       <c r="E275">
-        <v>326590.73</v>
+        <v>13146.5</v>
       </c>
       <c r="F275">
-        <v>1293145.27</v>
+        <v>32727.44</v>
       </c>
       <c r="G275" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -7763,22 +7763,22 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>377687.74</v>
+        <v>973022.8199999999</v>
       </c>
       <c r="C276" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>6468.28</v>
       </c>
       <c r="E276">
-        <v>125916.93</v>
+        <v>326590.73</v>
       </c>
       <c r="F276">
-        <v>503604.67</v>
+        <v>1293145.27</v>
       </c>
       <c r="G276" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -7786,22 +7786,22 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>3361434</v>
+        <v>377687.74</v>
       </c>
       <c r="C277" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D277">
-        <v>27.33</v>
+        <v>0</v>
       </c>
       <c r="E277">
-        <v>1040043.86</v>
+        <v>125916.93</v>
       </c>
       <c r="F277">
-        <v>4401450.53</v>
+        <v>503604.67</v>
       </c>
       <c r="G277" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -7809,22 +7809,22 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>10240.65</v>
+        <v>3361434</v>
       </c>
       <c r="C278" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>27.33</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>1040043.86</v>
       </c>
       <c r="F278">
-        <v>10240.65</v>
+        <v>4401450.53</v>
       </c>
       <c r="G278" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7832,22 +7832,22 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>68124.84</v>
+        <v>10240.65</v>
       </c>
       <c r="C279" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D279">
         <v>0</v>
       </c>
       <c r="E279">
-        <v>23471.8</v>
+        <v>0</v>
       </c>
       <c r="F279">
-        <v>91596.64</v>
+        <v>10240.65</v>
       </c>
       <c r="G279" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7855,22 +7855,22 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>285604.75</v>
+        <v>68124.84</v>
       </c>
       <c r="C280" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D280">
         <v>0</v>
       </c>
       <c r="E280">
-        <v>90434.02</v>
+        <v>23471.8</v>
       </c>
       <c r="F280">
-        <v>376038.77</v>
+        <v>91596.64</v>
       </c>
       <c r="G280" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -7878,22 +7878,22 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>35320.36</v>
+        <v>285604.75</v>
       </c>
       <c r="C281" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281">
-        <v>7116.31</v>
+        <v>90434.02</v>
       </c>
       <c r="F281">
-        <v>42436.67</v>
+        <v>376038.77</v>
       </c>
       <c r="G281" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -7901,22 +7901,22 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>118170.33</v>
+        <v>35320.36</v>
       </c>
       <c r="C282" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D282">
         <v>0</v>
       </c>
       <c r="E282">
-        <v>37607.52</v>
+        <v>7116.31</v>
       </c>
       <c r="F282">
-        <v>155777.85</v>
+        <v>42436.67</v>
       </c>
       <c r="G282" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -7924,22 +7924,22 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>19971.03</v>
+        <v>118170.33</v>
       </c>
       <c r="C283" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D283">
         <v>0</v>
       </c>
       <c r="E283">
-        <v>6657.01</v>
+        <v>37607.52</v>
       </c>
       <c r="F283">
-        <v>26628.04</v>
+        <v>155777.85</v>
       </c>
       <c r="G283" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -7947,22 +7947,22 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>2881054.2</v>
+        <v>19971.03</v>
       </c>
       <c r="C284" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D284">
         <v>0</v>
       </c>
       <c r="E284">
-        <v>969133.75</v>
+        <v>6657.01</v>
       </c>
       <c r="F284">
-        <v>3850187.95</v>
+        <v>26628.04</v>
       </c>
       <c r="G284" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -7970,22 +7970,22 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>355993.45</v>
+        <v>2881054.2</v>
       </c>
       <c r="C285" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D285">
         <v>0</v>
       </c>
       <c r="E285">
-        <v>193575.57</v>
+        <v>969133.75</v>
       </c>
       <c r="F285">
-        <v>549569.02</v>
+        <v>3850187.95</v>
       </c>
       <c r="G285" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -7993,22 +7993,22 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>35961.12</v>
+        <v>355993.45</v>
       </c>
       <c r="C286" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D286">
         <v>0</v>
       </c>
       <c r="E286">
-        <v>10876.42</v>
+        <v>193575.57</v>
       </c>
       <c r="F286">
-        <v>46837.54</v>
+        <v>549569.02</v>
       </c>
       <c r="G286" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8016,22 +8016,22 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>2357.79</v>
+        <v>35961.12</v>
       </c>
       <c r="C287" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D287">
         <v>0</v>
       </c>
       <c r="E287">
-        <v>2681.78</v>
+        <v>10876.42</v>
       </c>
       <c r="F287">
-        <v>5039.57</v>
+        <v>46837.54</v>
       </c>
       <c r="G287" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8039,22 +8039,22 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>217556.59</v>
+        <v>2357.79</v>
       </c>
       <c r="C288" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D288">
         <v>0</v>
       </c>
       <c r="E288">
-        <v>29939.72</v>
+        <v>2681.78</v>
       </c>
       <c r="F288">
-        <v>247496.31</v>
+        <v>5039.57</v>
       </c>
       <c r="G288" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8062,22 +8062,22 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>22.91</v>
+        <v>217556.59</v>
       </c>
       <c r="C289" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D289">
         <v>0</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>29939.72</v>
       </c>
       <c r="F289">
-        <v>22.91</v>
+        <v>247496.31</v>
       </c>
       <c r="G289" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -8085,22 +8085,22 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>1286360.2</v>
+        <v>22.91</v>
       </c>
       <c r="C290" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D290">
         <v>0</v>
       </c>
       <c r="E290">
-        <v>393528.31</v>
+        <v>0</v>
       </c>
       <c r="F290">
-        <v>1679888.51</v>
+        <v>22.91</v>
       </c>
       <c r="G290" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8108,22 +8108,22 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>120000</v>
+        <v>1286360.2</v>
       </c>
       <c r="C291" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D291">
         <v>0</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>393528.31</v>
       </c>
       <c r="F291">
-        <v>120000</v>
+        <v>1679888.51</v>
       </c>
       <c r="G291" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8131,22 +8131,22 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>49181.03</v>
+        <v>120000</v>
       </c>
       <c r="C292" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D292">
         <v>0</v>
       </c>
       <c r="E292">
-        <v>245213.54</v>
+        <v>0</v>
       </c>
       <c r="F292">
-        <v>294394.57</v>
+        <v>120000</v>
       </c>
       <c r="G292" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8154,22 +8154,22 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>260</v>
+        <v>49181.03</v>
       </c>
       <c r="C293" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D293">
         <v>0</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>245213.54</v>
       </c>
       <c r="F293">
-        <v>260</v>
+        <v>294394.57</v>
       </c>
       <c r="G293" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8177,10 +8177,10 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>729000</v>
+        <v>260</v>
       </c>
       <c r="C294" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -8189,10 +8189,10 @@
         <v>0</v>
       </c>
       <c r="F294">
-        <v>729000</v>
+        <v>260</v>
       </c>
       <c r="G294" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8200,10 +8200,10 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>911.86</v>
+        <v>729000</v>
       </c>
       <c r="C295" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -8212,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="F295">
-        <v>911.86</v>
+        <v>729000</v>
       </c>
       <c r="G295" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -8223,22 +8223,22 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>377687.74</v>
+        <v>911.86</v>
       </c>
       <c r="C296" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D296">
         <v>0</v>
       </c>
       <c r="E296">
-        <v>125916.93</v>
+        <v>0</v>
       </c>
       <c r="F296">
-        <v>503604.67</v>
+        <v>911.86</v>
       </c>
       <c r="G296" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -8246,16 +8246,22 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>377687.74</v>
+      </c>
+      <c r="C297" t="s">
+        <v>393</v>
       </c>
       <c r="D297">
-        <v>104.12</v>
+        <v>0</v>
       </c>
       <c r="E297">
-        <v>104.12</v>
+        <v>125916.93</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>503604.67</v>
+      </c>
+      <c r="G297" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -8263,22 +8269,16 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>12684.63</v>
-      </c>
-      <c r="C298" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>104.12</v>
       </c>
       <c r="E298">
-        <v>5932.5</v>
+        <v>104.12</v>
       </c>
       <c r="F298">
-        <v>18617.13</v>
-      </c>
-      <c r="G298" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -8286,22 +8286,22 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>1543000</v>
+        <v>12684.63</v>
       </c>
       <c r="C299" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D299">
         <v>0</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>5932.5</v>
       </c>
       <c r="F299">
-        <v>1543000</v>
+        <v>18617.13</v>
       </c>
       <c r="G299" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -8309,10 +8309,10 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>42980834.69</v>
+        <v>1543000</v>
       </c>
       <c r="C300" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -8321,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="F300">
-        <v>42980834.69</v>
+        <v>1543000</v>
       </c>
       <c r="G300" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -8332,7 +8332,7 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>5153615.6</v>
+        <v>42980834.69</v>
       </c>
       <c r="C301" t="s">
         <v>392</v>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="F301">
-        <v>5153615.6</v>
+        <v>42980834.69</v>
       </c>
       <c r="G301" t="s">
         <v>392</v>
@@ -8355,10 +8355,10 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>83420</v>
+        <v>5153615.6</v>
       </c>
       <c r="C302" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -8367,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="F302">
-        <v>83420</v>
+        <v>5153615.6</v>
       </c>
       <c r="G302" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -8378,22 +8378,22 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>1390040.43</v>
+        <v>83420</v>
       </c>
       <c r="C303" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D303">
-        <v>246842.37</v>
+        <v>0</v>
       </c>
       <c r="E303">
         <v>0</v>
       </c>
       <c r="F303">
-        <v>1636882.8</v>
+        <v>83420</v>
       </c>
       <c r="G303" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -8401,22 +8401,22 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>41354515.18</v>
+        <v>1390040.43</v>
       </c>
       <c r="C304" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>246842.37</v>
       </c>
       <c r="E304">
         <v>0</v>
       </c>
       <c r="F304">
-        <v>41354515.18</v>
+        <v>1636882.8</v>
       </c>
       <c r="G304" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -8424,22 +8424,22 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>4122176.13</v>
+        <v>41354515.18</v>
       </c>
       <c r="C305" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D305">
-        <v>758103.25</v>
+        <v>0</v>
       </c>
       <c r="E305">
         <v>0</v>
       </c>
       <c r="F305">
-        <v>4880279.38</v>
+        <v>41354515.18</v>
       </c>
       <c r="G305" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -8447,22 +8447,22 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>2620323.02</v>
+        <v>4122176.13</v>
       </c>
       <c r="C306" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D306">
-        <v>192720</v>
+        <v>758103.25</v>
       </c>
       <c r="E306">
         <v>0</v>
       </c>
       <c r="F306">
-        <v>2813043.02</v>
+        <v>4880279.38</v>
       </c>
       <c r="G306" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -8470,22 +8470,22 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>51000</v>
+        <v>2620323.02</v>
       </c>
       <c r="C307" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D307">
-        <v>0</v>
+        <v>192720</v>
       </c>
       <c r="E307">
         <v>0</v>
       </c>
       <c r="F307">
-        <v>51000</v>
+        <v>2813043.02</v>
       </c>
       <c r="G307" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -8493,22 +8493,22 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>1654867.91</v>
+        <v>51000</v>
       </c>
       <c r="C308" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D308">
-        <v>60480.88</v>
+        <v>0</v>
       </c>
       <c r="E308">
         <v>0</v>
       </c>
       <c r="F308">
-        <v>1715348.79</v>
+        <v>51000</v>
       </c>
       <c r="G308" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -8516,22 +8516,22 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>1390040.43</v>
+        <v>1654867.91</v>
       </c>
       <c r="C309" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D309">
-        <v>246842.37</v>
+        <v>60480.88</v>
       </c>
       <c r="E309">
         <v>0</v>
       </c>
       <c r="F309">
-        <v>1636882.8</v>
+        <v>1715348.79</v>
       </c>
       <c r="G309" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -8539,22 +8539,22 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>3697590.81</v>
+        <v>1390040.43</v>
       </c>
       <c r="C310" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D310">
-        <v>643500</v>
+        <v>246842.37</v>
       </c>
       <c r="E310">
         <v>0</v>
       </c>
       <c r="F310">
-        <v>4341090.81</v>
+        <v>1636882.8</v>
       </c>
       <c r="G310" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -8562,22 +8562,22 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>51000</v>
+        <v>3697590.81</v>
       </c>
       <c r="C311" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>643500</v>
       </c>
       <c r="E311">
         <v>0</v>
       </c>
       <c r="F311">
-        <v>51000</v>
+        <v>4341090.81</v>
       </c>
       <c r="G311" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -8585,7 +8585,7 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>6793499.15</v>
+        <v>51000</v>
       </c>
       <c r="C312" t="s">
         <v>392</v>
@@ -8594,10 +8594,10 @@
         <v>0</v>
       </c>
       <c r="E312">
-        <v>950823.25</v>
+        <v>0</v>
       </c>
       <c r="F312">
-        <v>7744322.4</v>
+        <v>51000</v>
       </c>
       <c r="G312" t="s">
         <v>392</v>
@@ -8608,22 +8608,22 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>3697590.81</v>
+        <v>6793499.15</v>
       </c>
       <c r="C313" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D313">
         <v>0</v>
       </c>
       <c r="E313">
-        <v>643500</v>
+        <v>950823.25</v>
       </c>
       <c r="F313">
-        <v>4341090.81</v>
+        <v>7744322.4</v>
       </c>
       <c r="G313" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -8631,22 +8631,22 @@
         <v>319</v>
       </c>
       <c r="B314">
-        <v>13903060.46</v>
+        <v>3697590.81</v>
       </c>
       <c r="C314" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D314">
-        <v>3440194.08</v>
+        <v>0</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>643500</v>
       </c>
       <c r="F314">
-        <v>17343254.54</v>
+        <v>4341090.81</v>
       </c>
       <c r="G314" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -8654,22 +8654,22 @@
         <v>320</v>
       </c>
       <c r="B315">
-        <v>398804.27</v>
+        <v>13903060.46</v>
       </c>
       <c r="C315" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D315">
-        <v>6713.89</v>
+        <v>3440194.08</v>
       </c>
       <c r="E315">
         <v>0</v>
       </c>
       <c r="F315">
-        <v>405518.16</v>
+        <v>17343254.54</v>
       </c>
       <c r="G315" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -8677,19 +8677,19 @@
         <v>321</v>
       </c>
       <c r="B316">
-        <v>570713.42</v>
+        <v>398804.27</v>
       </c>
       <c r="C316" t="s">
         <v>392</v>
       </c>
       <c r="D316">
-        <v>0</v>
+        <v>6713.89</v>
       </c>
       <c r="E316">
-        <v>333498.52</v>
+        <v>0</v>
       </c>
       <c r="F316">
-        <v>904211.9399999999</v>
+        <v>405518.16</v>
       </c>
       <c r="G316" t="s">
         <v>392</v>
@@ -8700,22 +8700,22 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>1496129.1</v>
+        <v>570713.42</v>
       </c>
       <c r="C317" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D317">
         <v>0</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>333498.52</v>
       </c>
       <c r="F317">
-        <v>1496129.1</v>
+        <v>904211.9399999999</v>
       </c>
       <c r="G317" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -8723,10 +8723,10 @@
         <v>323</v>
       </c>
       <c r="B318">
-        <v>2400</v>
+        <v>1496129.1</v>
       </c>
       <c r="C318" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -8735,10 +8735,10 @@
         <v>0</v>
       </c>
       <c r="F318">
-        <v>2400</v>
+        <v>1496129.1</v>
       </c>
       <c r="G318" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -8746,10 +8746,10 @@
         <v>324</v>
       </c>
       <c r="B319">
-        <v>60921.15</v>
+        <v>2400</v>
       </c>
       <c r="C319" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -8758,10 +8758,10 @@
         <v>0</v>
       </c>
       <c r="F319">
-        <v>60921.15</v>
+        <v>2400</v>
       </c>
       <c r="G319" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -8769,10 +8769,10 @@
         <v>325</v>
       </c>
       <c r="B320">
-        <v>360</v>
+        <v>60921.15</v>
       </c>
       <c r="C320" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="F320">
-        <v>360</v>
+        <v>60921.15</v>
       </c>
       <c r="G320" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -8792,19 +8792,19 @@
         <v>326</v>
       </c>
       <c r="B321">
-        <v>29093995.66</v>
+        <v>360</v>
       </c>
       <c r="C321" t="s">
         <v>392</v>
       </c>
       <c r="D321">
-        <v>4110249.34</v>
+        <v>0</v>
       </c>
       <c r="E321">
-        <v>725345.7</v>
+        <v>0</v>
       </c>
       <c r="F321">
-        <v>25709092.02</v>
+        <v>360</v>
       </c>
       <c r="G321" t="s">
         <v>392</v>
@@ -8815,22 +8815,22 @@
         <v>327</v>
       </c>
       <c r="B322">
-        <v>11377947.88</v>
+        <v>29093995.66</v>
       </c>
       <c r="C322" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D322">
-        <v>2040</v>
+        <v>4110249.34</v>
       </c>
       <c r="E322">
-        <v>4110249.34</v>
+        <v>725345.7</v>
       </c>
       <c r="F322">
-        <v>15486157.22</v>
+        <v>25709092.02</v>
       </c>
       <c r="G322" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -8838,22 +8838,22 @@
         <v>328</v>
       </c>
       <c r="B323">
-        <v>1328936.69</v>
+        <v>11377947.88</v>
       </c>
       <c r="C323" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D323">
-        <v>442720.45</v>
+        <v>2040</v>
       </c>
       <c r="E323">
-        <v>0</v>
+        <v>4110249.34</v>
       </c>
       <c r="F323">
-        <v>1771657.14</v>
+        <v>15486157.22</v>
       </c>
       <c r="G323" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -8861,22 +8861,22 @@
         <v>329</v>
       </c>
       <c r="B324">
-        <v>9167.33</v>
+        <v>1328936.69</v>
       </c>
       <c r="C324" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D324">
-        <v>22615.34</v>
+        <v>442720.45</v>
       </c>
       <c r="E324">
         <v>0</v>
       </c>
       <c r="F324">
-        <v>31782.67</v>
+        <v>1771657.14</v>
       </c>
       <c r="G324" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -8884,19 +8884,22 @@
         <v>330</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>9167.33</v>
+      </c>
+      <c r="C325" t="s">
+        <v>392</v>
       </c>
       <c r="D325">
-        <v>11127.54</v>
+        <v>22615.34</v>
       </c>
       <c r="E325">
         <v>0</v>
       </c>
       <c r="F325">
-        <v>11127.54</v>
+        <v>31782.67</v>
       </c>
       <c r="G325" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -8904,19 +8907,16 @@
         <v>331</v>
       </c>
       <c r="B326">
-        <v>30719272.21</v>
-      </c>
-      <c r="C326" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D326">
-        <v>4090407.97</v>
+        <v>11127.54</v>
       </c>
       <c r="E326">
-        <v>1284321.77</v>
+        <v>0</v>
       </c>
       <c r="F326">
-        <v>27913186.01</v>
+        <v>11127.54</v>
       </c>
       <c r="G326" t="s">
         <v>392</v>
@@ -8927,22 +8927,22 @@
         <v>332</v>
       </c>
       <c r="B327">
-        <v>6090864.65</v>
+        <v>30719272.21</v>
       </c>
       <c r="C327" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D327">
-        <v>3424964.45</v>
+        <v>4090407.97</v>
       </c>
       <c r="E327">
-        <v>3449588.86</v>
+        <v>1284321.77</v>
       </c>
       <c r="F327">
-        <v>6115489.06</v>
+        <v>27913186.01</v>
       </c>
       <c r="G327" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -8950,22 +8950,22 @@
         <v>333</v>
       </c>
       <c r="B328">
-        <v>520357.83</v>
+        <v>6090864.65</v>
       </c>
       <c r="C328" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D328">
-        <v>3043049.01</v>
+        <v>3424964.45</v>
       </c>
       <c r="E328">
-        <v>3091980.82</v>
+        <v>3449588.86</v>
       </c>
       <c r="F328">
-        <v>569289.64</v>
+        <v>6115489.06</v>
       </c>
       <c r="G328" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -8973,22 +8973,22 @@
         <v>334</v>
       </c>
       <c r="B329">
-        <v>7119928.83</v>
+        <v>520357.83</v>
       </c>
       <c r="C329" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D329">
-        <v>514.89</v>
+        <v>3043049.01</v>
       </c>
       <c r="E329">
-        <v>3040368.12</v>
+        <v>3091980.82</v>
       </c>
       <c r="F329">
-        <v>10159782.06</v>
+        <v>569289.64</v>
       </c>
       <c r="G329" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -8996,22 +8996,22 @@
         <v>335</v>
       </c>
       <c r="B330">
-        <v>6090864.65</v>
+        <v>7119928.83</v>
       </c>
       <c r="C330" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D330">
-        <v>3424964.45</v>
+        <v>514.89</v>
       </c>
       <c r="E330">
-        <v>3449588.86</v>
+        <v>3040368.12</v>
       </c>
       <c r="F330">
-        <v>6115489.06</v>
+        <v>10159782.06</v>
       </c>
       <c r="G330" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -9019,22 +9019,22 @@
         <v>336</v>
       </c>
       <c r="B331">
-        <v>520357.83</v>
+        <v>6090864.65</v>
       </c>
       <c r="C331" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D331">
-        <v>3043049.01</v>
+        <v>3424964.45</v>
       </c>
       <c r="E331">
-        <v>3091980.82</v>
+        <v>3449588.86</v>
       </c>
       <c r="F331">
-        <v>569289.64</v>
+        <v>6115489.06</v>
       </c>
       <c r="G331" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -9042,22 +9042,22 @@
         <v>337</v>
       </c>
       <c r="B332">
-        <v>7119928.83</v>
+        <v>520357.83</v>
       </c>
       <c r="C332" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D332">
-        <v>514.89</v>
+        <v>3043049.01</v>
       </c>
       <c r="E332">
-        <v>3040368.12</v>
+        <v>3091980.82</v>
       </c>
       <c r="F332">
-        <v>10159782.06</v>
+        <v>569289.64</v>
       </c>
       <c r="G332" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -9065,22 +9065,22 @@
         <v>338</v>
       </c>
       <c r="B333">
-        <v>773899.62</v>
+        <v>7119928.83</v>
       </c>
       <c r="C333" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D333">
-        <v>236637.87</v>
+        <v>514.89</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>3040368.12</v>
       </c>
       <c r="F333">
-        <v>537261.75</v>
+        <v>10159782.06</v>
       </c>
       <c r="G333" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -9088,19 +9088,22 @@
         <v>339</v>
       </c>
       <c r="B334">
-        <v>298423.78</v>
+        <v>773899.62</v>
       </c>
       <c r="C334" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D334">
-        <v>535061.65</v>
+        <v>236637.87</v>
       </c>
       <c r="E334">
-        <v>236637.87</v>
+        <v>0</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>537261.75</v>
+      </c>
+      <c r="G334" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -9108,22 +9111,19 @@
         <v>340</v>
       </c>
       <c r="B335">
-        <v>422386.01</v>
+        <v>298423.78</v>
       </c>
       <c r="C335" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>535061.65</v>
       </c>
       <c r="E335">
-        <v>535061.65</v>
+        <v>236637.87</v>
       </c>
       <c r="F335">
-        <v>957447.66</v>
-      </c>
-      <c r="G335" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -9131,22 +9131,22 @@
         <v>341</v>
       </c>
       <c r="B336">
-        <v>3819.69</v>
+        <v>422386.01</v>
       </c>
       <c r="C336" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D336">
         <v>0</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>535061.65</v>
       </c>
       <c r="F336">
-        <v>3819.69</v>
+        <v>957447.66</v>
       </c>
       <c r="G336" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -9154,10 +9154,10 @@
         <v>342</v>
       </c>
       <c r="B337">
-        <v>360</v>
+        <v>3819.69</v>
       </c>
       <c r="C337" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="F337">
-        <v>360</v>
+        <v>3819.69</v>
       </c>
       <c r="G337" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -9177,10 +9177,10 @@
         <v>343</v>
       </c>
       <c r="B338">
-        <v>60921.15</v>
+        <v>360</v>
       </c>
       <c r="C338" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -9189,10 +9189,10 @@
         <v>0</v>
       </c>
       <c r="F338">
-        <v>60921.15</v>
+        <v>360</v>
       </c>
       <c r="G338" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -9200,10 +9200,10 @@
         <v>344</v>
       </c>
       <c r="B339">
-        <v>17414</v>
+        <v>60921.15</v>
       </c>
       <c r="C339" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -9212,10 +9212,10 @@
         <v>0</v>
       </c>
       <c r="F339">
-        <v>17414</v>
+        <v>60921.15</v>
       </c>
       <c r="G339" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -9223,10 +9223,10 @@
         <v>345</v>
       </c>
       <c r="B340">
-        <v>32437701.5</v>
+        <v>17414</v>
       </c>
       <c r="C340" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -9235,10 +9235,10 @@
         <v>0</v>
       </c>
       <c r="F340">
-        <v>32437701.5</v>
+        <v>17414</v>
       </c>
       <c r="G340" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -9246,22 +9246,22 @@
         <v>346</v>
       </c>
       <c r="B341">
-        <v>545270</v>
+        <v>32437701.5</v>
       </c>
       <c r="C341" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D341">
-        <v>21300</v>
+        <v>0</v>
       </c>
       <c r="E341">
         <v>0</v>
       </c>
       <c r="F341">
-        <v>566570</v>
+        <v>32437701.5</v>
       </c>
       <c r="G341" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -9269,19 +9269,22 @@
         <v>347</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>545270</v>
+      </c>
+      <c r="C342" t="s">
+        <v>392</v>
       </c>
       <c r="D342">
-        <v>3166.38</v>
+        <v>21300</v>
       </c>
       <c r="E342">
         <v>0</v>
       </c>
       <c r="F342">
-        <v>3166.38</v>
+        <v>566570</v>
       </c>
       <c r="G342" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -9289,22 +9292,19 @@
         <v>348</v>
       </c>
       <c r="B343">
-        <v>3921377.71</v>
-      </c>
-      <c r="C343" t="s">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D343">
-        <v>421240.2</v>
+        <v>3166.38</v>
       </c>
       <c r="E343">
         <v>0</v>
       </c>
       <c r="F343">
-        <v>4342617.91</v>
+        <v>3166.38</v>
       </c>
       <c r="G343" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -9312,22 +9312,22 @@
         <v>349</v>
       </c>
       <c r="B344">
-        <v>1374886.74</v>
+        <v>3921377.71</v>
       </c>
       <c r="C344" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D344">
-        <v>6978</v>
+        <v>421240.2</v>
       </c>
       <c r="E344">
         <v>0</v>
       </c>
       <c r="F344">
-        <v>1381864.74</v>
+        <v>4342617.91</v>
       </c>
       <c r="G344" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -9335,22 +9335,22 @@
         <v>350</v>
       </c>
       <c r="B345">
-        <v>793084.4300000001</v>
+        <v>1374886.74</v>
       </c>
       <c r="C345" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D345">
-        <v>0</v>
+        <v>6978</v>
       </c>
       <c r="E345">
         <v>0</v>
       </c>
       <c r="F345">
-        <v>793084.4300000001</v>
+        <v>1381864.74</v>
       </c>
       <c r="G345" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -9358,10 +9358,10 @@
         <v>351</v>
       </c>
       <c r="B346">
-        <v>209512.59</v>
+        <v>793084.4300000001</v>
       </c>
       <c r="C346" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -9370,10 +9370,10 @@
         <v>0</v>
       </c>
       <c r="F346">
-        <v>209512.59</v>
+        <v>793084.4300000001</v>
       </c>
       <c r="G346" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -9381,22 +9381,22 @@
         <v>352</v>
       </c>
       <c r="B347">
-        <v>31033609.27</v>
+        <v>209512.59</v>
       </c>
       <c r="C347" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D347">
-        <v>1946362.92</v>
+        <v>0</v>
       </c>
       <c r="E347">
-        <v>521225.99</v>
+        <v>0</v>
       </c>
       <c r="F347">
-        <v>32458746.2</v>
+        <v>209512.59</v>
       </c>
       <c r="G347" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -9404,22 +9404,22 @@
         <v>353</v>
       </c>
       <c r="B348">
-        <v>14928291.78</v>
+        <v>31033609.27</v>
       </c>
       <c r="C348" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D348">
-        <v>22231451.22</v>
+        <v>1946362.92</v>
       </c>
       <c r="E348">
-        <v>20418676.52</v>
+        <v>521225.99</v>
       </c>
       <c r="F348">
-        <v>16741066.48</v>
+        <v>32458746.2</v>
       </c>
       <c r="G348" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -9427,22 +9427,22 @@
         <v>354</v>
       </c>
       <c r="B349">
-        <v>1022393.16</v>
+        <v>14928291.78</v>
       </c>
       <c r="C349" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D349">
-        <v>318263.06</v>
+        <v>22231451.22</v>
       </c>
       <c r="E349">
-        <v>357.01</v>
+        <v>20418676.52</v>
       </c>
       <c r="F349">
-        <v>1340299.21</v>
+        <v>16741066.48</v>
       </c>
       <c r="G349" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -9450,22 +9450,22 @@
         <v>355</v>
       </c>
       <c r="B350">
-        <v>2002</v>
+        <v>1022393.16</v>
       </c>
       <c r="C350" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D350">
-        <v>0</v>
+        <v>318263.06</v>
       </c>
       <c r="E350">
-        <v>0</v>
+        <v>357.01</v>
       </c>
       <c r="F350">
-        <v>2002</v>
+        <v>1340299.21</v>
       </c>
       <c r="G350" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -9473,22 +9473,22 @@
         <v>356</v>
       </c>
       <c r="B351">
-        <v>19187.98</v>
+        <v>2002</v>
       </c>
       <c r="C351" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D351">
-        <v>9593.99</v>
+        <v>0</v>
       </c>
       <c r="E351">
         <v>0</v>
       </c>
       <c r="F351">
-        <v>28781.97</v>
+        <v>2002</v>
       </c>
       <c r="G351" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -9496,22 +9496,22 @@
         <v>357</v>
       </c>
       <c r="B352">
-        <v>252996.55</v>
+        <v>19187.98</v>
       </c>
       <c r="C352" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D352">
-        <v>0</v>
+        <v>9593.99</v>
       </c>
       <c r="E352">
         <v>0</v>
       </c>
       <c r="F352">
-        <v>252996.55</v>
+        <v>28781.97</v>
       </c>
       <c r="G352" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -9519,22 +9519,22 @@
         <v>358</v>
       </c>
       <c r="B353">
-        <v>27343.59</v>
+        <v>252996.55</v>
       </c>
       <c r="C353" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D353">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E353">
-        <v>98.89</v>
+        <v>0</v>
       </c>
       <c r="F353">
-        <v>30244.7</v>
+        <v>252996.55</v>
       </c>
       <c r="G353" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -9542,22 +9542,22 @@
         <v>359</v>
       </c>
       <c r="B354">
-        <v>17404.12</v>
+        <v>27343.59</v>
       </c>
       <c r="C354" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D354">
-        <v>2002</v>
+        <v>3000</v>
       </c>
       <c r="E354">
-        <v>0</v>
+        <v>98.89</v>
       </c>
       <c r="F354">
-        <v>19406.12</v>
+        <v>30244.7</v>
       </c>
       <c r="G354" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -9565,22 +9565,22 @@
         <v>360</v>
       </c>
       <c r="B355">
-        <v>6604850.92</v>
+        <v>17404.12</v>
       </c>
       <c r="C355" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D355">
-        <v>2296.42</v>
+        <v>2002</v>
       </c>
       <c r="E355">
-        <v>60480.88</v>
+        <v>0</v>
       </c>
       <c r="F355">
-        <v>6546666.46</v>
+        <v>19406.12</v>
       </c>
       <c r="G355" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -9588,19 +9588,19 @@
         <v>361</v>
       </c>
       <c r="B356">
-        <v>17414</v>
+        <v>6604850.92</v>
       </c>
       <c r="C356" t="s">
         <v>392</v>
       </c>
       <c r="D356">
-        <v>0</v>
+        <v>2296.42</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>60480.88</v>
       </c>
       <c r="F356">
-        <v>17414</v>
+        <v>6546666.46</v>
       </c>
       <c r="G356" t="s">
         <v>392</v>
@@ -9611,10 +9611,10 @@
         <v>362</v>
       </c>
       <c r="B357">
-        <v>32437701.5</v>
+        <v>17414</v>
       </c>
       <c r="C357" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -9623,10 +9623,10 @@
         <v>0</v>
       </c>
       <c r="F357">
-        <v>32437701.5</v>
+        <v>17414</v>
       </c>
       <c r="G357" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -9634,22 +9634,22 @@
         <v>363</v>
       </c>
       <c r="B358">
-        <v>410436.36</v>
+        <v>32437701.5</v>
       </c>
       <c r="C358" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D358">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="E358">
-        <v>21300</v>
+        <v>0</v>
       </c>
       <c r="F358">
-        <v>382736.36</v>
+        <v>32437701.5</v>
       </c>
       <c r="G358" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -9657,22 +9657,22 @@
         <v>364</v>
       </c>
       <c r="B359">
-        <v>18381.82</v>
+        <v>410436.36</v>
       </c>
       <c r="C359" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D359">
-        <v>40681.82</v>
+        <v>49000</v>
       </c>
       <c r="E359">
-        <v>49000</v>
+        <v>21300</v>
       </c>
       <c r="F359">
-        <v>26700</v>
+        <v>382736.36</v>
       </c>
       <c r="G359" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -9680,19 +9680,22 @@
         <v>365</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>18381.82</v>
+      </c>
+      <c r="C360" t="s">
+        <v>393</v>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>40681.82</v>
       </c>
       <c r="E360">
-        <v>16181.82</v>
+        <v>49000</v>
       </c>
       <c r="F360">
-        <v>16181.82</v>
+        <v>26700</v>
       </c>
       <c r="G360" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -9700,22 +9703,19 @@
         <v>366</v>
       </c>
       <c r="B361">
-        <v>65181.82</v>
-      </c>
-      <c r="C361" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D361">
         <v>0</v>
       </c>
       <c r="E361">
-        <v>24500</v>
+        <v>16181.82</v>
       </c>
       <c r="F361">
-        <v>89681.82000000001</v>
+        <v>16181.82</v>
       </c>
       <c r="G361" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -9723,22 +9723,22 @@
         <v>367</v>
       </c>
       <c r="B362">
-        <v>51270</v>
+        <v>65181.82</v>
       </c>
       <c r="C362" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D362">
         <v>0</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>24500</v>
       </c>
       <c r="F362">
-        <v>51270</v>
+        <v>89681.82000000001</v>
       </c>
       <c r="G362" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -9746,16 +9746,22 @@
         <v>368</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>51270</v>
+      </c>
+      <c r="C363" t="s">
+        <v>393</v>
       </c>
       <c r="D363">
-        <v>3166.38</v>
+        <v>0</v>
       </c>
       <c r="E363">
-        <v>3166.38</v>
+        <v>0</v>
       </c>
       <c r="F363">
-        <v>0</v>
+        <v>51270</v>
+      </c>
+      <c r="G363" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -9766,16 +9772,13 @@
         <v>0</v>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>3166.38</v>
       </c>
       <c r="E364">
         <v>3166.38</v>
       </c>
       <c r="F364">
-        <v>3166.38</v>
-      </c>
-      <c r="G364" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -9783,22 +9786,19 @@
         <v>370</v>
       </c>
       <c r="B365">
-        <v>2788636.43</v>
-      </c>
-      <c r="C365" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D365">
-        <v>538624.67</v>
+        <v>0</v>
       </c>
       <c r="E365">
-        <v>421240.2</v>
+        <v>3166.38</v>
       </c>
       <c r="F365">
-        <v>2671251.96</v>
+        <v>3166.38</v>
       </c>
       <c r="G365" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -9806,22 +9806,22 @@
         <v>371</v>
       </c>
       <c r="B366">
-        <v>1132741.28</v>
+        <v>2788636.43</v>
       </c>
       <c r="C366" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>538624.67</v>
       </c>
       <c r="E366">
-        <v>538624.67</v>
+        <v>421240.2</v>
       </c>
       <c r="F366">
-        <v>1671365.95</v>
+        <v>2671251.96</v>
       </c>
       <c r="G366" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -9829,22 +9829,22 @@
         <v>372</v>
       </c>
       <c r="B367">
-        <v>1341927.3</v>
+        <v>1132741.28</v>
       </c>
       <c r="C367" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D367">
-        <v>39321.2</v>
+        <v>0</v>
       </c>
       <c r="E367">
-        <v>6978</v>
+        <v>538624.67</v>
       </c>
       <c r="F367">
-        <v>1309584.1</v>
+        <v>1671365.95</v>
       </c>
       <c r="G367" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -9852,22 +9852,22 @@
         <v>373</v>
       </c>
       <c r="B368">
-        <v>32959.44</v>
+        <v>1341927.3</v>
       </c>
       <c r="C368" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>39321.2</v>
       </c>
       <c r="E368">
-        <v>39321.2</v>
+        <v>6978</v>
       </c>
       <c r="F368">
-        <v>72280.64</v>
+        <v>1309584.1</v>
       </c>
       <c r="G368" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -9875,22 +9875,22 @@
         <v>374</v>
       </c>
       <c r="B369">
-        <v>711924.4300000001</v>
+        <v>32959.44</v>
       </c>
       <c r="C369" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D369">
-        <v>12700</v>
+        <v>0</v>
       </c>
       <c r="E369">
-        <v>0</v>
+        <v>39321.2</v>
       </c>
       <c r="F369">
-        <v>699224.4300000001</v>
+        <v>72280.64</v>
       </c>
       <c r="G369" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -9898,22 +9898,22 @@
         <v>375</v>
       </c>
       <c r="B370">
-        <v>81160</v>
+        <v>711924.4300000001</v>
       </c>
       <c r="C370" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D370">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="E370">
-        <v>12700</v>
+        <v>0</v>
       </c>
       <c r="F370">
-        <v>93860</v>
+        <v>699224.4300000001</v>
       </c>
       <c r="G370" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -9921,22 +9921,22 @@
         <v>376</v>
       </c>
       <c r="B371">
-        <v>209512.59</v>
+        <v>81160</v>
       </c>
       <c r="C371" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D371">
         <v>0</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="F371">
-        <v>209512.59</v>
+        <v>93860</v>
       </c>
       <c r="G371" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -9944,22 +9944,22 @@
         <v>377</v>
       </c>
       <c r="B372">
-        <v>30280567.79</v>
+        <v>209512.59</v>
       </c>
       <c r="C372" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D372">
-        <v>4178782.13</v>
+        <v>0</v>
       </c>
       <c r="E372">
-        <v>4697475.7</v>
+        <v>0</v>
       </c>
       <c r="F372">
-        <v>30799261.36</v>
+        <v>209512.59</v>
       </c>
       <c r="G372" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -9967,22 +9967,22 @@
         <v>378</v>
       </c>
       <c r="B373">
-        <v>6864764.27</v>
+        <v>30280567.79</v>
       </c>
       <c r="C373" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D373">
-        <v>3661959.33</v>
+        <v>4178782.13</v>
       </c>
       <c r="E373">
-        <v>3449945.87</v>
+        <v>4697475.7</v>
       </c>
       <c r="F373">
-        <v>6652750.81</v>
+        <v>30799261.36</v>
       </c>
       <c r="G373" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -9990,22 +9990,22 @@
         <v>379</v>
       </c>
       <c r="B374">
-        <v>819141.61</v>
+        <v>6864764.27</v>
       </c>
       <c r="C374" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D374">
-        <v>3578110.66</v>
+        <v>3661959.33</v>
       </c>
       <c r="E374">
-        <v>3328618.69</v>
+        <v>3449945.87</v>
       </c>
       <c r="F374">
-        <v>569649.64</v>
+        <v>6652750.81</v>
       </c>
       <c r="G374" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -10013,22 +10013,22 @@
         <v>380</v>
       </c>
       <c r="B375">
-        <v>112999.49</v>
+        <v>819141.61</v>
       </c>
       <c r="C375" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D375">
-        <v>318500.12</v>
+        <v>3578110.66</v>
       </c>
       <c r="E375">
-        <v>318263.06</v>
+        <v>3328618.69</v>
       </c>
       <c r="F375">
-        <v>112762.43</v>
+        <v>569649.64</v>
       </c>
       <c r="G375" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -10036,22 +10036,22 @@
         <v>381</v>
       </c>
       <c r="B376">
-        <v>8906821.050000001</v>
+        <v>112999.49</v>
       </c>
       <c r="C376" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D376">
-        <v>520623.21</v>
+        <v>318500.12</v>
       </c>
       <c r="E376">
-        <v>4019489.81</v>
+        <v>318263.06</v>
       </c>
       <c r="F376">
-        <v>12405687.65</v>
+        <v>112762.43</v>
       </c>
       <c r="G376" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -10059,22 +10059,22 @@
         <v>382</v>
       </c>
       <c r="B377">
-        <v>2002</v>
+        <v>8906821.050000001</v>
       </c>
       <c r="C377" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D377">
-        <v>0</v>
+        <v>520623.21</v>
       </c>
       <c r="E377">
-        <v>0</v>
+        <v>4019489.81</v>
       </c>
       <c r="F377">
-        <v>2002</v>
+        <v>12405687.65</v>
       </c>
       <c r="G377" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -10082,22 +10082,22 @@
         <v>383</v>
       </c>
       <c r="B378">
-        <v>19187.98</v>
+        <v>2002</v>
       </c>
       <c r="C378" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D378">
         <v>0</v>
       </c>
       <c r="E378">
-        <v>9593.99</v>
+        <v>0</v>
       </c>
       <c r="F378">
-        <v>28781.97</v>
+        <v>2002</v>
       </c>
       <c r="G378" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -10105,22 +10105,22 @@
         <v>384</v>
       </c>
       <c r="B379">
-        <v>252996.55</v>
+        <v>19187.98</v>
       </c>
       <c r="C379" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D379">
         <v>0</v>
       </c>
       <c r="E379">
-        <v>0</v>
+        <v>9593.99</v>
       </c>
       <c r="F379">
-        <v>252996.55</v>
+        <v>28781.97</v>
       </c>
       <c r="G379" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -10128,22 +10128,22 @@
         <v>385</v>
       </c>
       <c r="B380">
-        <v>17900</v>
+        <v>252996.55</v>
       </c>
       <c r="C380" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D380">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E380">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F380">
-        <v>20400</v>
+        <v>252996.55</v>
       </c>
       <c r="G380" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -10151,16 +10151,22 @@
         <v>386</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>17900</v>
+      </c>
+      <c r="C381" t="s">
+        <v>393</v>
       </c>
       <c r="D381">
-        <v>401.11</v>
+        <v>500</v>
       </c>
       <c r="E381">
-        <v>401.11</v>
+        <v>3000</v>
       </c>
       <c r="F381">
-        <v>0</v>
+        <v>20400</v>
+      </c>
+      <c r="G381" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -10168,22 +10174,16 @@
         <v>387</v>
       </c>
       <c r="B382">
-        <v>9443.59</v>
-      </c>
-      <c r="C382" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D382">
-        <v>0</v>
+        <v>401.11</v>
       </c>
       <c r="E382">
         <v>401.11</v>
       </c>
       <c r="F382">
-        <v>9844.700000000001</v>
-      </c>
-      <c r="G382" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -10191,22 +10191,22 @@
         <v>388</v>
       </c>
       <c r="B383">
-        <v>17404.12</v>
+        <v>9443.59</v>
       </c>
       <c r="C383" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D383">
         <v>0</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>401.11</v>
       </c>
       <c r="F383">
-        <v>17404.12</v>
+        <v>9844.700000000001</v>
       </c>
       <c r="G383" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -10214,19 +10214,22 @@
         <v>389</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>17404.12</v>
+      </c>
+      <c r="C384" t="s">
+        <v>393</v>
       </c>
       <c r="D384">
         <v>0</v>
       </c>
       <c r="E384">
-        <v>2002</v>
+        <v>0</v>
       </c>
       <c r="F384">
-        <v>2002</v>
+        <v>17404.12</v>
       </c>
       <c r="G384" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -10234,22 +10237,42 @@
         <v>390</v>
       </c>
       <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>2002</v>
+      </c>
+      <c r="F385">
+        <v>2002</v>
+      </c>
+      <c r="G385" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" t="s">
+        <v>391</v>
+      </c>
+      <c r="B386">
         <v>6604850.92</v>
       </c>
-      <c r="C385" t="s">
-        <v>392</v>
-      </c>
-      <c r="D385">
+      <c r="C386" t="s">
+        <v>393</v>
+      </c>
+      <c r="D386">
         <v>542480.88</v>
       </c>
-      <c r="E385">
+      <c r="E386">
         <v>484296.42</v>
       </c>
-      <c r="F385">
+      <c r="F386">
         <v>6546666.46</v>
       </c>
-      <c r="G385" t="s">
-        <v>392</v>
+      <c r="G386" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
